--- a/NFL_Success_Predictor/playerswAV.xlsx
+++ b/NFL_Success_Predictor/playerswAV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d5bd67dbb09b163/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="747" documentId="8_{1BB5FBAA-0354-4F72-A96B-D826B701C5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E38FD33A-8A2E-4451-8243-7AD2E7A489F8}"/>
+  <xr:revisionPtr revIDLastSave="765" documentId="8_{1BB5FBAA-0354-4F72-A96B-D826B701C5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F578920-102E-44C5-80DD-EF21D706CCAC}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{AEF9A23E-D0FE-4196-8C6B-02E1D14DEEDB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{AEF9A23E-D0FE-4196-8C6B-02E1D14DEEDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="1088">
   <si>
     <t>Name</t>
   </si>
@@ -1827,6 +1827,1479 @@
   </si>
   <si>
     <t>Harold Blackmon</t>
+  </si>
+  <si>
+    <t>Justin Blackmon</t>
+  </si>
+  <si>
+    <t>Will Blackmon</t>
+  </si>
+  <si>
+    <t>Saeed Blacknall</t>
+  </si>
+  <si>
+    <t>Angelo Blackson</t>
+  </si>
+  <si>
+    <t>Darryl Blackstock</t>
+  </si>
+  <si>
+    <t>Willie Blade</t>
+  </si>
+  <si>
+    <t>H.B. Blades</t>
+  </si>
+  <si>
+    <t>Marquise Blair</t>
+  </si>
+  <si>
+    <t>Ronald Blair</t>
+  </si>
+  <si>
+    <t>Antwon Blake</t>
+  </si>
+  <si>
+    <t>Christian Blake</t>
+  </si>
+  <si>
+    <t>Dwayne Blakley</t>
+  </si>
+  <si>
+    <t>Justin Blalock</t>
+  </si>
+  <si>
+    <t>Kendall Blanton</t>
+  </si>
+  <si>
+    <t>Robert Blanton</t>
+  </si>
+  <si>
+    <t>Khari Blasingame</t>
+  </si>
+  <si>
+    <t>Derrick Blaylock</t>
+  </si>
+  <si>
+    <t>Darrius Blevins</t>
+  </si>
+  <si>
+    <t>David Blough</t>
+  </si>
+  <si>
+    <t>LeGarrette Blount</t>
+  </si>
+  <si>
+    <t>Alfred Blue</t>
+  </si>
+  <si>
+    <t>Greg Blue</t>
+  </si>
+  <si>
+    <t>Austin Blythe</t>
+  </si>
+  <si>
+    <t>C.J. Board</t>
+  </si>
+  <si>
+    <t>Chris Board</t>
+  </si>
+  <si>
+    <t>Kenneth Boatright</t>
+  </si>
+  <si>
+    <t>Chris Bober</t>
+  </si>
+  <si>
+    <t>Colby Bockwoldt</t>
+  </si>
+  <si>
+    <t>Leigh Bodden</t>
+  </si>
+  <si>
+    <t>Briean Boddy-Calhoun</t>
+  </si>
+  <si>
+    <t>Shaun Bodiford</t>
+  </si>
+  <si>
+    <t>Russell Bodine</t>
+  </si>
+  <si>
+    <t>Patrick Body</t>
+  </si>
+  <si>
+    <t>Evan Boehm</t>
+  </si>
+  <si>
+    <t>Marc Boerigter</t>
+  </si>
+  <si>
+    <t>Ike Boettger</t>
+  </si>
+  <si>
+    <t>Taylor Boggs</t>
+  </si>
+  <si>
+    <t>Phil Bogle</t>
+  </si>
+  <si>
+    <t>Tommy Bohanon</t>
+  </si>
+  <si>
+    <t>Rocky Boiman</t>
+  </si>
+  <si>
+    <t>Corey Bojorquez</t>
+  </si>
+  <si>
+    <t>Brandon Bolden</t>
+  </si>
+  <si>
+    <t>Omar Bolden</t>
+  </si>
+  <si>
+    <t>Victor Bolden</t>
+  </si>
+  <si>
+    <t>Anquan Boldin</t>
+  </si>
+  <si>
+    <t>Brock Bolen</t>
+  </si>
+  <si>
+    <t>Michael Boley</t>
+  </si>
+  <si>
+    <t>Clint Boling</t>
+  </si>
+  <si>
+    <t>Kyle Boller</t>
+  </si>
+  <si>
+    <t>Garett Bolles</t>
+  </si>
+  <si>
+    <t>Brooks Bollinger</t>
+  </si>
+  <si>
+    <t>Conrad Bolston</t>
+  </si>
+  <si>
+    <t>Devante Bond</t>
+  </si>
+  <si>
+    <t>Deyshawn Bond</t>
+  </si>
+  <si>
+    <t>Travis Bond</t>
+  </si>
+  <si>
+    <t>Reggie Bonnafon</t>
+  </si>
+  <si>
+    <t>Devontae Booker</t>
+  </si>
+  <si>
+    <t>Fred Booker</t>
+  </si>
+  <si>
+    <t>Lorenzo Booker</t>
+  </si>
+  <si>
+    <t>Alex Boone</t>
+  </si>
+  <si>
+    <t>Alfonso Boone</t>
+  </si>
+  <si>
+    <t>Mike Boone</t>
+  </si>
+  <si>
+    <t>Kevin Boothe</t>
+  </si>
+  <si>
+    <t>Breon Borders</t>
+  </si>
+  <si>
+    <t>Chris Borland</t>
+  </si>
+  <si>
+    <t>Blake Bortles</t>
+  </si>
+  <si>
+    <t>Jarvis Borum</t>
+  </si>
+  <si>
+    <t>Joey Bosa</t>
+  </si>
+  <si>
+    <t>Nick Bosa</t>
+  </si>
+  <si>
+    <t>Ryan Boschetti</t>
+  </si>
+  <si>
+    <t>Matthew Bosher</t>
+  </si>
+  <si>
+    <t>Kevin Boss</t>
+  </si>
+  <si>
+    <t>Jonathan Bostic</t>
+  </si>
+  <si>
+    <t>Brandon Bostick</t>
+  </si>
+  <si>
+    <t>Tre Boston</t>
+  </si>
+  <si>
+    <t>Chris Boswell</t>
+  </si>
+  <si>
+    <t>Kyle Bosworth</t>
+  </si>
+  <si>
+    <t>Michael Boulware</t>
+  </si>
+  <si>
+    <t>Todd Bouman</t>
+  </si>
+  <si>
+    <t>Kendrick Bourne</t>
+  </si>
+  <si>
+    <t>A.J. Bouye</t>
+  </si>
+  <si>
+    <t>Luke Bowanko</t>
+  </si>
+  <si>
+    <t>Dwayne Bowe</t>
+  </si>
+  <si>
+    <t>Alvin Bowen</t>
+  </si>
+  <si>
+    <t>Matt Bowen</t>
+  </si>
+  <si>
+    <t>Stephen Bowen</t>
+  </si>
+  <si>
+    <t>Tashawn Bower</t>
+  </si>
+  <si>
+    <t>Andy Bowers</t>
+  </si>
+  <si>
+    <t>Da'Quan Bowers</t>
+  </si>
+  <si>
+    <t>R.J. Bowers</t>
+  </si>
+  <si>
+    <t>John Bowie</t>
+  </si>
+  <si>
+    <t>Michael Bowie</t>
+  </si>
+  <si>
+    <t>Braedon Bowman</t>
+  </si>
+  <si>
+    <t>NaVorro Bowman</t>
+  </si>
+  <si>
+    <t>Zackary Bowman</t>
+  </si>
+  <si>
+    <t>Tyus Bowser</t>
+  </si>
+  <si>
+    <t>Josh Boyce</t>
+  </si>
+  <si>
+    <t>Cory Boyd</t>
+  </si>
+  <si>
+    <t>Danny Boyd</t>
+  </si>
+  <si>
+    <t>James Boyd</t>
+  </si>
+  <si>
+    <t>Jerome Boyd</t>
+  </si>
+  <si>
+    <t>Josh Boyd</t>
+  </si>
+  <si>
+    <t>Kris Boyd</t>
+  </si>
+  <si>
+    <t>LaVell Boyd</t>
+  </si>
+  <si>
+    <t>Tyler Boyd</t>
+  </si>
+  <si>
+    <t>Brandon Boykin</t>
+  </si>
+  <si>
+    <t>Jarrett Boykin</t>
+  </si>
+  <si>
+    <t>McKinley Boykin</t>
+  </si>
+  <si>
+    <t>Miles Boykin</t>
+  </si>
+  <si>
+    <t>Trevone Boykin</t>
+  </si>
+  <si>
+    <t>Brett Boyko</t>
+  </si>
+  <si>
+    <t>Nick Boyle</t>
+  </si>
+  <si>
+    <t>Tim Boyle</t>
+  </si>
+  <si>
+    <t>Bradley Bozeman</t>
+  </si>
+  <si>
+    <t>Ron Brace</t>
+  </si>
+  <si>
+    <t>Tyron Brackenridge</t>
+  </si>
+  <si>
+    <t>Brett Brackett</t>
+  </si>
+  <si>
+    <t>Gary Brackett</t>
+  </si>
+  <si>
+    <t>James Bradberry</t>
+  </si>
+  <si>
+    <t>Garrett Bradbury</t>
+  </si>
+  <si>
+    <t>Ben Braden</t>
+  </si>
+  <si>
+    <t>Cameron Bradfield</t>
+  </si>
+  <si>
+    <t>Allen Bradford</t>
+  </si>
+  <si>
+    <t>Carl Bradford</t>
+  </si>
+  <si>
+    <t>Sam Bradford</t>
+  </si>
+  <si>
+    <t>Nigel Bradham</t>
+  </si>
+  <si>
+    <t>Bam Bradley</t>
+  </si>
+  <si>
+    <t>Hunter Bradley</t>
+  </si>
+  <si>
+    <t>Jon Bradley</t>
+  </si>
+  <si>
+    <t>Mark Bradley</t>
+  </si>
+  <si>
+    <t>Stewart Bradley</t>
+  </si>
+  <si>
+    <t>Ahmad Bradshaw</t>
+  </si>
+  <si>
+    <t>Tom Brady</t>
+  </si>
+  <si>
+    <t>Michael Bragg</t>
+  </si>
+  <si>
+    <t>Bryan Braman</t>
+  </si>
+  <si>
+    <t>Alan Branch</t>
+  </si>
+  <si>
+    <t>Andre Branch</t>
+  </si>
+  <si>
+    <t>Bruce Branch</t>
+  </si>
+  <si>
+    <t>Colin Branch</t>
+  </si>
+  <si>
+    <t>Deion Branch</t>
+  </si>
+  <si>
+    <t>Jamaal Branch</t>
+  </si>
+  <si>
+    <t>Tyvon Branch</t>
+  </si>
+  <si>
+    <t>Sam Brandon</t>
+  </si>
+  <si>
+    <t>Tom Brandstater</t>
+  </si>
+  <si>
+    <t>David Brandt</t>
+  </si>
+  <si>
+    <t>Caleb Brantley</t>
+  </si>
+  <si>
+    <t>Cameron Brate</t>
+  </si>
+  <si>
+    <t>Ben Braunecker</t>
+  </si>
+  <si>
+    <t>Daniel Braverman</t>
+  </si>
+  <si>
+    <t>Quan Bray</t>
+  </si>
+  <si>
+    <t>Tyler Bray</t>
+  </si>
+  <si>
+    <t>Tyler Brayton</t>
+  </si>
+  <si>
+    <t>LaVon Brazill</t>
+  </si>
+  <si>
+    <t>Steve Breaston</t>
+  </si>
+  <si>
+    <t>Delvin Breaux</t>
+  </si>
+  <si>
+    <t>Kevin Breedlove</t>
+  </si>
+  <si>
+    <t>Bashaud Breeland</t>
+  </si>
+  <si>
+    <t>Drew Brees</t>
+  </si>
+  <si>
+    <t>Matt Breida</t>
+  </si>
+  <si>
+    <t>Jake Brendel</t>
+  </si>
+  <si>
+    <t>Sam Brenner</t>
+  </si>
+  <si>
+    <t>Josh Brent</t>
+  </si>
+  <si>
+    <t>K.J. Brent</t>
+  </si>
+  <si>
+    <t>Aaron Brewer</t>
+  </si>
+  <si>
+    <t>Chandler Brewer</t>
+  </si>
+  <si>
+    <t>Jack Brewer</t>
+  </si>
+  <si>
+    <t>James Brewer</t>
+  </si>
+  <si>
+    <t>Sean Brewer</t>
+  </si>
+  <si>
+    <t>Mike Brewster</t>
+  </si>
+  <si>
+    <t>Robert Brewster</t>
+  </si>
+  <si>
+    <t>Kentrell Brice</t>
+  </si>
+  <si>
+    <t>Jeremy Bridges</t>
+  </si>
+  <si>
+    <t>Teddy Bridgewater</t>
+  </si>
+  <si>
+    <t>Diyral Briggs</t>
+  </si>
+  <si>
+    <t>Lance Briggs</t>
+  </si>
+  <si>
+    <t>Anthony Bright</t>
+  </si>
+  <si>
+    <t>Lamont Brightful</t>
+  </si>
+  <si>
+    <t>Kyle Brindza</t>
+  </si>
+  <si>
+    <t>Beau Brinkley</t>
+  </si>
+  <si>
+    <t>Curtis Brinkley</t>
+  </si>
+  <si>
+    <t>Jasper Brinkley</t>
+  </si>
+  <si>
+    <t>Dezmon Briscoe</t>
+  </si>
+  <si>
+    <t>Mike Brisiel</t>
+  </si>
+  <si>
+    <t>Jacoby Brissett</t>
+  </si>
+  <si>
+    <t>Justin Britt</t>
+  </si>
+  <si>
+    <t>Kenny Britt</t>
+  </si>
+  <si>
+    <t>Wesley Britt</t>
+  </si>
+  <si>
+    <t>Eben Britton</t>
+  </si>
+  <si>
+    <t>Eric Brock</t>
+  </si>
+  <si>
+    <t>Kevin Brock</t>
+  </si>
+  <si>
+    <t>Raheem Brock</t>
+  </si>
+  <si>
+    <t>Tramaine Brock</t>
+  </si>
+  <si>
+    <t>Richie Brockel</t>
+  </si>
+  <si>
+    <t>Michael Brockers</t>
+  </si>
+  <si>
+    <t>Mason Brodine</t>
+  </si>
+  <si>
+    <t>Brian Brohm</t>
+  </si>
+  <si>
+    <t>Jay Bromley</t>
+  </si>
+  <si>
+    <t>John Bronson</t>
+  </si>
+  <si>
+    <t>Jason Brookins</t>
+  </si>
+  <si>
+    <t>Aaron Brooks</t>
+  </si>
+  <si>
+    <t>Ahmad Brooks</t>
+  </si>
+  <si>
+    <t>Brandon Brooks</t>
+  </si>
+  <si>
+    <t>Cariel Brooks</t>
+  </si>
+  <si>
+    <t>Chris Brooks</t>
+  </si>
+  <si>
+    <t>Durant Brooks</t>
+  </si>
+  <si>
+    <t>Greg Brooks</t>
+  </si>
+  <si>
+    <t>Jamal Brooks</t>
+  </si>
+  <si>
+    <t>Jermaine Brooks</t>
+  </si>
+  <si>
+    <t>Michael Brooks</t>
+  </si>
+  <si>
+    <t>Nate Brooks</t>
+  </si>
+  <si>
+    <t>Rodregis Brooks</t>
+  </si>
+  <si>
+    <t>Ron Brooks</t>
+  </si>
+  <si>
+    <t>Terrence Brooks</t>
+  </si>
+  <si>
+    <t>Tony Brooks-James</t>
+  </si>
+  <si>
+    <t>Kentrell Brothers</t>
+  </si>
+  <si>
+    <t>Cortez Broughton</t>
+  </si>
+  <si>
+    <t>Nehemiah Broughton</t>
+  </si>
+  <si>
+    <t>Jamall Broussard</t>
+  </si>
+  <si>
+    <t>John Broussard</t>
+  </si>
+  <si>
+    <t>A.J. Brown</t>
+  </si>
+  <si>
+    <t>Aaron Brown</t>
+  </si>
+  <si>
+    <t>Alex Brown</t>
+  </si>
+  <si>
+    <t>Andre Brown</t>
+  </si>
+  <si>
+    <t>Andrew Brown</t>
+  </si>
+  <si>
+    <t>Anthony Brown</t>
+  </si>
+  <si>
+    <t>Antonio Brown</t>
+  </si>
+  <si>
+    <t>WR</t>
+  </si>
+  <si>
+    <t>Arthur Brown</t>
+  </si>
+  <si>
+    <t>Blair Brown</t>
+  </si>
+  <si>
+    <t>Bobby Brown</t>
+  </si>
+  <si>
+    <t>Bryce Brown</t>
+  </si>
+  <si>
+    <t>C.C. Brown</t>
+  </si>
+  <si>
+    <t>Charles Brown</t>
+  </si>
+  <si>
+    <t>Chris Brown</t>
+  </si>
+  <si>
+    <t>Chykie Brown</t>
+  </si>
+  <si>
+    <t>Colin Brown</t>
+  </si>
+  <si>
+    <t>Corey Brown</t>
+  </si>
+  <si>
+    <t>Cornelius Brown</t>
+  </si>
+  <si>
+    <t>Courtney Brown</t>
+  </si>
+  <si>
+    <t>Curtis Brown</t>
+  </si>
+  <si>
+    <t>Daniel Brown</t>
+  </si>
+  <si>
+    <t>Dante Brown</t>
+  </si>
+  <si>
+    <t>Dee Brown</t>
+  </si>
+  <si>
+    <t>Delvin Brown</t>
+  </si>
+  <si>
+    <t>Donald Brown</t>
+  </si>
+  <si>
+    <t>Donatello Brown</t>
+  </si>
+  <si>
+    <t>Duane Brown</t>
+  </si>
+  <si>
+    <t>Elton Brown</t>
+  </si>
+  <si>
+    <t>Evan Brown</t>
+  </si>
+  <si>
+    <t>Everette Brown</t>
+  </si>
+  <si>
+    <t>Fadol Brown</t>
+  </si>
+  <si>
+    <t>Fred Brown</t>
+  </si>
+  <si>
+    <t>Jalil Brown</t>
+  </si>
+  <si>
+    <t>James Brown</t>
+  </si>
+  <si>
+    <t>Jammal Brown</t>
+  </si>
+  <si>
+    <t>Jamon Brown</t>
+  </si>
+  <si>
+    <t>Jaron Brown</t>
+  </si>
+  <si>
+    <t>Jason Brown</t>
+  </si>
+  <si>
+    <t>Jatavis Brown</t>
+  </si>
+  <si>
+    <t>Jayon Brown</t>
+  </si>
+  <si>
+    <t>Jerry Brown</t>
+  </si>
+  <si>
+    <t>Joe Brown</t>
+  </si>
+  <si>
+    <t>John Brown</t>
+  </si>
+  <si>
+    <t>Josh Brown</t>
+  </si>
+  <si>
+    <t>Justin Brown</t>
+  </si>
+  <si>
+    <t>Kareem Brown</t>
+  </si>
+  <si>
+    <t>Kourtnei Brown</t>
+  </si>
+  <si>
+    <t>Kyron Brown</t>
+  </si>
+  <si>
+    <t>Levi Brown</t>
+  </si>
+  <si>
+    <t>Mack Brown</t>
+  </si>
+  <si>
+    <t>Malcolm Brown</t>
+  </si>
+  <si>
+    <t>Malcom Brown</t>
+  </si>
+  <si>
+    <t>Marcus Brown</t>
+  </si>
+  <si>
+    <t>Mark Brown</t>
+  </si>
+  <si>
+    <t>Marlon Brown</t>
+  </si>
+  <si>
+    <t>Marquise Brown</t>
+  </si>
+  <si>
+    <t>Michael Brown</t>
+  </si>
+  <si>
+    <t>Mike Brown</t>
+  </si>
+  <si>
+    <t>Miles Brown</t>
+  </si>
+  <si>
+    <t>Milford Brown</t>
+  </si>
+  <si>
+    <t>Noah Brown</t>
+  </si>
+  <si>
+    <t>Omar Brown</t>
+  </si>
+  <si>
+    <t>Orlando Brown Jr.</t>
+  </si>
+  <si>
+    <t>Patrick Brown</t>
+  </si>
+  <si>
+    <t>Pharaoh Brown</t>
+  </si>
+  <si>
+    <t>Preston Brown</t>
+  </si>
+  <si>
+    <t>Ralph Brown</t>
+  </si>
+  <si>
+    <t>Reggie Brown</t>
+  </si>
+  <si>
+    <t>Ricky Brown</t>
+  </si>
+  <si>
+    <t>Ronnie Brown</t>
+  </si>
+  <si>
+    <t>Rufus Brown</t>
+  </si>
+  <si>
+    <t>Sammy Brown</t>
+  </si>
+  <si>
+    <t>Sergio Brown</t>
+  </si>
+  <si>
+    <t>Sheldon Brown</t>
+  </si>
+  <si>
+    <t>Stevie Brown</t>
+  </si>
+  <si>
+    <t>Tarell Brown</t>
+  </si>
+  <si>
+    <t>Titus Brown</t>
+  </si>
+  <si>
+    <t>Tony Brown</t>
+  </si>
+  <si>
+    <t>Travis Brown</t>
+  </si>
+  <si>
+    <t>Trent Brown</t>
+  </si>
+  <si>
+    <t>Vincent Brown</t>
+  </si>
+  <si>
+    <t>Zach Brown</t>
+  </si>
+  <si>
+    <t>Brandon Browner</t>
+  </si>
+  <si>
+    <t>Keith Browner</t>
+  </si>
+  <si>
+    <t>Bryant Browning</t>
+  </si>
+  <si>
+    <t>Ryan Broyles</t>
+  </si>
+  <si>
+    <t>Arland Bruce</t>
+  </si>
+  <si>
+    <t>Mkristo Bruce</t>
+  </si>
+  <si>
+    <t>Rob Bruggeman</t>
+  </si>
+  <si>
+    <t>Daniel Brunskill</t>
+  </si>
+  <si>
+    <t>Daryon Brutley</t>
+  </si>
+  <si>
+    <t>David Bruton</t>
+  </si>
+  <si>
+    <t>Chris Bryan</t>
+  </si>
+  <si>
+    <t>Copeland Bryan</t>
+  </si>
+  <si>
+    <t>Courtney Bryan</t>
+  </si>
+  <si>
+    <t>Taven Bryan</t>
+  </si>
+  <si>
+    <t>Anthony Bryant</t>
+  </si>
+  <si>
+    <t>Antonio Bryant</t>
+  </si>
+  <si>
+    <t>Armonty Bryant</t>
+  </si>
+  <si>
+    <t>Austin Bryant</t>
+  </si>
+  <si>
+    <t>Brandin Bryant</t>
+  </si>
+  <si>
+    <t>C.B. Bryant</t>
+  </si>
+  <si>
+    <t>Corbin Bryant</t>
+  </si>
+  <si>
+    <t>Desmond Bryant</t>
+  </si>
+  <si>
+    <t>Dez Bryant</t>
+  </si>
+  <si>
+    <t>Martavis Bryant</t>
+  </si>
+  <si>
+    <t>Matt Bryant</t>
+  </si>
+  <si>
+    <t>Red Bryant</t>
+  </si>
+  <si>
+    <t>Roderick Bryant</t>
+  </si>
+  <si>
+    <t>Romby Bryant</t>
+  </si>
+  <si>
+    <t>Ventell Bryant</t>
+  </si>
+  <si>
+    <t>Wendell Bryant</t>
+  </si>
+  <si>
+    <t>Shawn Bryson</t>
+  </si>
+  <si>
+    <t>Tony Bua</t>
+  </si>
+  <si>
+    <t>Deone Bucannon</t>
+  </si>
+  <si>
+    <t>Michael Buchanan</t>
+  </si>
+  <si>
+    <t>Phillip Buchanon</t>
+  </si>
+  <si>
+    <t>Will Buchanon</t>
+  </si>
+  <si>
+    <t>Correll Buckhalter</t>
+  </si>
+  <si>
+    <t>Eldra Buckley</t>
+  </si>
+  <si>
+    <t>DeForest Buckner</t>
+  </si>
+  <si>
+    <t>David Buehler</t>
+  </si>
+  <si>
+    <t>Dan Buenning</t>
+  </si>
+  <si>
+    <t>Isaiah Buggs</t>
+  </si>
+  <si>
+    <t>Marcus Buggs</t>
+  </si>
+  <si>
+    <t>Bryan Bulaga</t>
+  </si>
+  <si>
+    <t>Marc Bulger</t>
+  </si>
+  <si>
+    <t>Courtland Bullard</t>
+  </si>
+  <si>
+    <t>Jonathan Bullard</t>
+  </si>
+  <si>
+    <t>Melvin Bullitt</t>
+  </si>
+  <si>
+    <t>Randy Bullock</t>
+  </si>
+  <si>
+    <t>Daniel Bullocks</t>
+  </si>
+  <si>
+    <t>Josh Bullocks</t>
+  </si>
+  <si>
+    <t>Max Bullough</t>
+  </si>
+  <si>
+    <t>Riley Bullough</t>
+  </si>
+  <si>
+    <t>Keith Bulluck</t>
+  </si>
+  <si>
+    <t>Tim Bulman</t>
+  </si>
+  <si>
+    <t>Michael Bumpus</t>
+  </si>
+  <si>
+    <t>Marquis Bundy</t>
+  </si>
+  <si>
+    <t>Brodrick Bunkley</t>
+  </si>
+  <si>
+    <t>Aaron Burbridge</t>
+  </si>
+  <si>
+    <t>Vontaze Burfict</t>
+  </si>
+  <si>
+    <t>Derrick Burgess</t>
+  </si>
+  <si>
+    <t>James Burgess</t>
+  </si>
+  <si>
+    <t>Prescott Burgess</t>
+  </si>
+  <si>
+    <t>Rex Burkhead</t>
+  </si>
+  <si>
+    <t>Brandon Burks</t>
+  </si>
+  <si>
+    <t>Dialleo Burks</t>
+  </si>
+  <si>
+    <t>Oren Burks</t>
+  </si>
+  <si>
+    <t>Nate Burleson</t>
+  </si>
+  <si>
+    <t>Marcus Burley</t>
+  </si>
+  <si>
+    <t>Deontay Burnett</t>
+  </si>
+  <si>
+    <t>Joe Burnett</t>
+  </si>
+  <si>
+    <t>Kaelin Burnett</t>
+  </si>
+  <si>
+    <t>Kevin Burnett</t>
+  </si>
+  <si>
+    <t>Morgan Burnett</t>
+  </si>
+  <si>
+    <t>Artie Burns</t>
+  </si>
+  <si>
+    <t>Brian Burns</t>
+  </si>
+  <si>
+    <t>Curry Burns</t>
+  </si>
+  <si>
+    <t>Joe Burns</t>
+  </si>
+  <si>
+    <t>Ben Burr-Kirven</t>
+  </si>
+  <si>
+    <t>Plaxico Burress</t>
+  </si>
+  <si>
+    <t>Henry Burris</t>
+  </si>
+  <si>
+    <t>Juston Burris</t>
+  </si>
+  <si>
+    <t>Miles Burris</t>
+  </si>
+  <si>
+    <t>Isaiah Burse</t>
+  </si>
+  <si>
+    <t>Antwon Burton</t>
+  </si>
+  <si>
+    <t>Brandon Burton</t>
+  </si>
+  <si>
+    <t>Deante Burton</t>
+  </si>
+  <si>
+    <t>Keenan Burton</t>
+  </si>
+  <si>
+    <t>Michael Burton</t>
+  </si>
+  <si>
+    <t>Stephen Burton</t>
+  </si>
+  <si>
+    <t>Trey Burton</t>
+  </si>
+  <si>
+    <t>Tyreek Burwell</t>
+  </si>
+  <si>
+    <t>Deon Bush</t>
+  </si>
+  <si>
+    <t>Devin Bush Jr.</t>
+  </si>
+  <si>
+    <t>Jarrett Bush</t>
+  </si>
+  <si>
+    <t>Josh Bush</t>
+  </si>
+  <si>
+    <t>Michael Bush</t>
+  </si>
+  <si>
+    <t>Rafael Bush</t>
+  </si>
+  <si>
+    <t>Reggie Bush</t>
+  </si>
+  <si>
+    <t>Jermon Bushrod</t>
+  </si>
+  <si>
+    <t>John Busing</t>
+  </si>
+  <si>
+    <t>Nate Bussey</t>
+  </si>
+  <si>
+    <t>Harrison Butker</t>
+  </si>
+  <si>
+    <t>Adam Butler</t>
+  </si>
+  <si>
+    <t>Brad Butler</t>
+  </si>
+  <si>
+    <t>Brice Butler</t>
+  </si>
+  <si>
+    <t>Crezdon Butler</t>
+  </si>
+  <si>
+    <t>Darius Butler</t>
+  </si>
+  <si>
+    <t>Deon Butler</t>
+  </si>
+  <si>
+    <t>Donald Butler</t>
+  </si>
+  <si>
+    <t>Drew Butler</t>
+  </si>
+  <si>
+    <t>James Butler</t>
+  </si>
+  <si>
+    <t>Jerametrius Butler</t>
+  </si>
+  <si>
+    <t>Jeremy Butler</t>
+  </si>
+  <si>
+    <t>Kelly Butler</t>
+  </si>
+  <si>
+    <t>Malcolm Butler</t>
+  </si>
+  <si>
+    <t>Mario Butler</t>
+  </si>
+  <si>
+    <t>Quincy Butler</t>
+  </si>
+  <si>
+    <t>Rashad Butler</t>
+  </si>
+  <si>
+    <t>Robb Butler</t>
+  </si>
+  <si>
+    <t>Terry Butler</t>
+  </si>
+  <si>
+    <t>Vernon Butler</t>
+  </si>
+  <si>
+    <t>Victor Butler</t>
+  </si>
+  <si>
+    <t>Jake Butt</t>
+  </si>
+  <si>
+    <t>Kevin Byard</t>
+  </si>
+  <si>
+    <t>Jeff Byers</t>
+  </si>
+  <si>
+    <t>Nate Byham</t>
+  </si>
+  <si>
+    <t>Carrington Byndom</t>
+  </si>
+  <si>
+    <t>Josh Bynes</t>
+  </si>
+  <si>
+    <t>Damiere Byrd</t>
+  </si>
+  <si>
+    <t>Dominique Byrd</t>
+  </si>
+  <si>
+    <t>Emanuel Byrd</t>
+  </si>
+  <si>
+    <t>Jairus Byrd</t>
+  </si>
+  <si>
+    <t>LaRon Byrd</t>
+  </si>
+  <si>
+    <t>Shawn Byrdsong</t>
+  </si>
+  <si>
+    <t>Jake Byrne</t>
+  </si>
+  <si>
+    <t>Dion Byrum</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Olamide Zaccheaus</t>
+  </si>
+  <si>
+    <t>Dave Zastudil</t>
+  </si>
+  <si>
+    <t>Tom Zbikowski</t>
+  </si>
+  <si>
+    <t>Dominique Zeigler</t>
+  </si>
+  <si>
+    <t>Kevin Zeitler</t>
+  </si>
+  <si>
+    <t>Zach Zenner</t>
+  </si>
+  <si>
+    <t>Anthony Zettel</t>
+  </si>
+  <si>
+    <t>Chris Ziemann</t>
+  </si>
+  <si>
+    <t>Lee Ziemba</t>
+  </si>
+  <si>
+    <t>Justin Zimmer</t>
+  </si>
+  <si>
+    <t>Keith Zinger</t>
+  </si>
+  <si>
+    <t>Frank Zombo</t>
+  </si>
+  <si>
+    <t>Greg Zuerlein</t>
+  </si>
+  <si>
+    <t>Paul Zukauskas</t>
+  </si>
+  <si>
+    <t>Jeremy Zuttah</t>
+  </si>
+  <si>
+    <t>Brandon Zylstra</t>
+  </si>
+  <si>
+    <t>Rock Ya-Sin</t>
+  </si>
+  <si>
+    <t>Bashir Yamini</t>
+  </si>
+  <si>
+    <t>Marshal Yanda</t>
+  </si>
+  <si>
+    <t>David Yankey</t>
+  </si>
+  <si>
+    <t>Eddie Yarbrough</t>
+  </si>
+  <si>
+    <t>Billy Yates</t>
+  </si>
+  <si>
+    <t>Max Yates</t>
+  </si>
+  <si>
+    <t>T.J. Yates</t>
+  </si>
+  <si>
+    <t>Will Yeatman</t>
+  </si>
+  <si>
+    <t>Deon Yelder</t>
+  </si>
+  <si>
+    <t>T.J. Yeldon</t>
+  </si>
+  <si>
+    <t>Isaac Yiadom</t>
+  </si>
+  <si>
+    <t>Todd Yoder</t>
+  </si>
+  <si>
+    <t>Ashton Youboty</t>
+  </si>
+  <si>
+    <t>Albert Young</t>
+  </si>
+  <si>
+    <t>Brian Young</t>
+  </si>
+  <si>
+    <t>Chris Young</t>
+  </si>
+  <si>
+    <t>Darrel Young</t>
+  </si>
+  <si>
+    <t>David Young</t>
+  </si>
+  <si>
+    <t>Kenny Young</t>
+  </si>
+  <si>
+    <t>Lou Young</t>
+  </si>
+  <si>
+    <t>Michael Young</t>
+  </si>
+  <si>
+    <t>Sam Young</t>
+  </si>
+  <si>
+    <t>Scott Young</t>
+  </si>
+  <si>
+    <t>Selvin Young</t>
+  </si>
+  <si>
+    <t>Tavon Young</t>
+  </si>
+  <si>
+    <t>Titus Young</t>
+  </si>
+  <si>
+    <t>Trevon Young</t>
+  </si>
+  <si>
+    <t>Usama Young</t>
+  </si>
+  <si>
+    <t>Vince Young</t>
+  </si>
+  <si>
+    <t>Walter Young</t>
+  </si>
+  <si>
+    <t>Willie Young</t>
+  </si>
+  <si>
+    <t>Kevin Youngblood</t>
+  </si>
+  <si>
+    <t>Christian Yount</t>
+  </si>
+  <si>
+    <t>Dave Yovanovits</t>
   </si>
 </sst>
 </file>
@@ -2220,10 +3693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B966F6-99ED-4357-B12D-1F6521F2DAF7}">
-  <dimension ref="A1:D624"/>
+  <dimension ref="A1:D1121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A577" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A595" sqref="A595:B624"/>
+    <sheetView tabSelected="1" topLeftCell="A1079" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1087" sqref="A1087:B1121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7287,6 +8760,4027 @@
         <v>1</v>
       </c>
     </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A625" t="s">
+        <v>597</v>
+      </c>
+      <c r="B625">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A626" t="s">
+        <v>598</v>
+      </c>
+      <c r="B626">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A627" t="s">
+        <v>599</v>
+      </c>
+      <c r="B627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A628" t="s">
+        <v>600</v>
+      </c>
+      <c r="B628">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A629" t="s">
+        <v>601</v>
+      </c>
+      <c r="B629">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A630" t="s">
+        <v>602</v>
+      </c>
+      <c r="B630">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A631" t="s">
+        <v>603</v>
+      </c>
+      <c r="B631">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A632" t="s">
+        <v>604</v>
+      </c>
+      <c r="B632">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A633" t="s">
+        <v>605</v>
+      </c>
+      <c r="B633">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A634" t="s">
+        <v>606</v>
+      </c>
+      <c r="B634">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A635" t="s">
+        <v>607</v>
+      </c>
+      <c r="B635">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A636" t="s">
+        <v>608</v>
+      </c>
+      <c r="B636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A637" t="s">
+        <v>609</v>
+      </c>
+      <c r="B637">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A638" t="s">
+        <v>610</v>
+      </c>
+      <c r="B638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A639" t="s">
+        <v>611</v>
+      </c>
+      <c r="B639">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A640" t="s">
+        <v>612</v>
+      </c>
+      <c r="B640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A641" t="s">
+        <v>613</v>
+      </c>
+      <c r="B641">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A642" t="s">
+        <v>614</v>
+      </c>
+      <c r="B642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A643" t="s">
+        <v>615</v>
+      </c>
+      <c r="B643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A644" t="s">
+        <v>616</v>
+      </c>
+      <c r="B644">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A645" t="s">
+        <v>617</v>
+      </c>
+      <c r="B645">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A646" t="s">
+        <v>618</v>
+      </c>
+      <c r="B646">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A647" t="s">
+        <v>619</v>
+      </c>
+      <c r="B647">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A648" t="s">
+        <v>620</v>
+      </c>
+      <c r="B648">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A649" t="s">
+        <v>621</v>
+      </c>
+      <c r="B649">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A650" t="s">
+        <v>622</v>
+      </c>
+      <c r="B650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A651" t="s">
+        <v>623</v>
+      </c>
+      <c r="B651">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A652" t="s">
+        <v>624</v>
+      </c>
+      <c r="B652">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A653" t="s">
+        <v>625</v>
+      </c>
+      <c r="B653">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A654" t="s">
+        <v>626</v>
+      </c>
+      <c r="B654">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A655" t="s">
+        <v>627</v>
+      </c>
+      <c r="B655">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A656" t="s">
+        <v>628</v>
+      </c>
+      <c r="B656">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A657" t="s">
+        <v>629</v>
+      </c>
+      <c r="B657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A658" t="s">
+        <v>630</v>
+      </c>
+      <c r="B658">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A659" t="s">
+        <v>631</v>
+      </c>
+      <c r="B659">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A660" t="s">
+        <v>632</v>
+      </c>
+      <c r="B660">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A661" t="s">
+        <v>633</v>
+      </c>
+      <c r="B661">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A662" t="s">
+        <v>634</v>
+      </c>
+      <c r="B662">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A663" t="s">
+        <v>635</v>
+      </c>
+      <c r="B663">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A664" t="s">
+        <v>636</v>
+      </c>
+      <c r="B664">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A665" t="s">
+        <v>637</v>
+      </c>
+      <c r="B665">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A666" t="s">
+        <v>638</v>
+      </c>
+      <c r="B666">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A667" t="s">
+        <v>639</v>
+      </c>
+      <c r="B667">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A668" t="s">
+        <v>640</v>
+      </c>
+      <c r="B668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A669" t="s">
+        <v>641</v>
+      </c>
+      <c r="B669">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A670" t="s">
+        <v>642</v>
+      </c>
+      <c r="B670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A671" t="s">
+        <v>643</v>
+      </c>
+      <c r="B671">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A672" t="s">
+        <v>644</v>
+      </c>
+      <c r="B672">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A673" t="s">
+        <v>645</v>
+      </c>
+      <c r="B673">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A674" t="s">
+        <v>646</v>
+      </c>
+      <c r="B674">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A675" t="s">
+        <v>647</v>
+      </c>
+      <c r="B675">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A676" t="s">
+        <v>648</v>
+      </c>
+      <c r="B676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A677" t="s">
+        <v>649</v>
+      </c>
+      <c r="B677">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A678" t="s">
+        <v>650</v>
+      </c>
+      <c r="B678">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A679" t="s">
+        <v>651</v>
+      </c>
+      <c r="B679">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A680" t="s">
+        <v>652</v>
+      </c>
+      <c r="B680">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A681" t="s">
+        <v>653</v>
+      </c>
+      <c r="B681">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A682" t="s">
+        <v>654</v>
+      </c>
+      <c r="B682">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A683" t="s">
+        <v>655</v>
+      </c>
+      <c r="B683">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A684" t="s">
+        <v>656</v>
+      </c>
+      <c r="B684">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A685" t="s">
+        <v>657</v>
+      </c>
+      <c r="B685">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A686" t="s">
+        <v>658</v>
+      </c>
+      <c r="B686">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A687" t="s">
+        <v>659</v>
+      </c>
+      <c r="B687">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A688" t="s">
+        <v>660</v>
+      </c>
+      <c r="B688">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A689" t="s">
+        <v>661</v>
+      </c>
+      <c r="B689">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A690" t="s">
+        <v>662</v>
+      </c>
+      <c r="B690">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A691" t="s">
+        <v>663</v>
+      </c>
+      <c r="B691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A692" t="s">
+        <v>664</v>
+      </c>
+      <c r="B692">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A693" t="s">
+        <v>665</v>
+      </c>
+      <c r="B693">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A694" t="s">
+        <v>666</v>
+      </c>
+      <c r="B694">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A695" t="s">
+        <v>667</v>
+      </c>
+      <c r="B695">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A696" t="s">
+        <v>668</v>
+      </c>
+      <c r="B696">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A697" t="s">
+        <v>669</v>
+      </c>
+      <c r="B697">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A698" t="s">
+        <v>670</v>
+      </c>
+      <c r="B698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A699" t="s">
+        <v>671</v>
+      </c>
+      <c r="B699">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A700" t="s">
+        <v>672</v>
+      </c>
+      <c r="B700">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A701" t="s">
+        <v>673</v>
+      </c>
+      <c r="B701">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A702" t="s">
+        <v>674</v>
+      </c>
+      <c r="B702">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A703" t="s">
+        <v>675</v>
+      </c>
+      <c r="B703">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A704" t="s">
+        <v>676</v>
+      </c>
+      <c r="B704">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A705" t="s">
+        <v>677</v>
+      </c>
+      <c r="B705">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A706" t="s">
+        <v>678</v>
+      </c>
+      <c r="B706">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A707" t="s">
+        <v>679</v>
+      </c>
+      <c r="B707">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A708" t="s">
+        <v>680</v>
+      </c>
+      <c r="B708">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A709" t="s">
+        <v>681</v>
+      </c>
+      <c r="B709">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A710" t="s">
+        <v>682</v>
+      </c>
+      <c r="B710">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A711" t="s">
+        <v>683</v>
+      </c>
+      <c r="B711">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A712" t="s">
+        <v>684</v>
+      </c>
+      <c r="B712">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A713" t="s">
+        <v>685</v>
+      </c>
+      <c r="B713">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A714" t="s">
+        <v>686</v>
+      </c>
+      <c r="B714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A715" t="s">
+        <v>687</v>
+      </c>
+      <c r="B715">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A716" t="s">
+        <v>688</v>
+      </c>
+      <c r="B716">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A717" t="s">
+        <v>689</v>
+      </c>
+      <c r="B717">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A718" t="s">
+        <v>690</v>
+      </c>
+      <c r="B718">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A719" t="s">
+        <v>691</v>
+      </c>
+      <c r="B719">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A720" t="s">
+        <v>692</v>
+      </c>
+      <c r="B720">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A721" t="s">
+        <v>693</v>
+      </c>
+      <c r="B721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A722" t="s">
+        <v>694</v>
+      </c>
+      <c r="B722">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A723" t="s">
+        <v>695</v>
+      </c>
+      <c r="B723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A724" t="s">
+        <v>696</v>
+      </c>
+      <c r="B724">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A725" t="s">
+        <v>697</v>
+      </c>
+      <c r="B725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A726" t="s">
+        <v>698</v>
+      </c>
+      <c r="B726">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A727" t="s">
+        <v>699</v>
+      </c>
+      <c r="B727">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A728" t="s">
+        <v>700</v>
+      </c>
+      <c r="B728">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A729" t="s">
+        <v>701</v>
+      </c>
+      <c r="B729">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A730" t="s">
+        <v>702</v>
+      </c>
+      <c r="B730">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A731" t="s">
+        <v>703</v>
+      </c>
+      <c r="B731">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A732" t="s">
+        <v>704</v>
+      </c>
+      <c r="B732">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A733" t="s">
+        <v>705</v>
+      </c>
+      <c r="B733">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A734" t="s">
+        <v>706</v>
+      </c>
+      <c r="B734">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A735" t="s">
+        <v>707</v>
+      </c>
+      <c r="B735">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A736" t="s">
+        <v>708</v>
+      </c>
+      <c r="B736">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A737" t="s">
+        <v>709</v>
+      </c>
+      <c r="B737">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A738" t="s">
+        <v>710</v>
+      </c>
+      <c r="B738">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A739" t="s">
+        <v>711</v>
+      </c>
+      <c r="B739">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A740" t="s">
+        <v>712</v>
+      </c>
+      <c r="B740">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A741" t="s">
+        <v>713</v>
+      </c>
+      <c r="B741">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A742" t="s">
+        <v>714</v>
+      </c>
+      <c r="B742">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A743" t="s">
+        <v>715</v>
+      </c>
+      <c r="B743">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A744" t="s">
+        <v>716</v>
+      </c>
+      <c r="B744">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A745" t="s">
+        <v>717</v>
+      </c>
+      <c r="B745">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A746" t="s">
+        <v>718</v>
+      </c>
+      <c r="B746">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A747" t="s">
+        <v>719</v>
+      </c>
+      <c r="B747">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A748" t="s">
+        <v>720</v>
+      </c>
+      <c r="B748">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A749" t="s">
+        <v>721</v>
+      </c>
+      <c r="B749">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A750" t="s">
+        <v>722</v>
+      </c>
+      <c r="B750">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A751" t="s">
+        <v>723</v>
+      </c>
+      <c r="B751">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A752" t="s">
+        <v>724</v>
+      </c>
+      <c r="B752">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A753" t="s">
+        <v>725</v>
+      </c>
+      <c r="B753">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A754" t="s">
+        <v>726</v>
+      </c>
+      <c r="B754">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A755" t="s">
+        <v>727</v>
+      </c>
+      <c r="B755">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A756" t="s">
+        <v>728</v>
+      </c>
+      <c r="B756">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A757" t="s">
+        <v>729</v>
+      </c>
+      <c r="B757">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A758" t="s">
+        <v>730</v>
+      </c>
+      <c r="B758">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A759" t="s">
+        <v>731</v>
+      </c>
+      <c r="B759">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A760" t="s">
+        <v>732</v>
+      </c>
+      <c r="B760">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A761" t="s">
+        <v>733</v>
+      </c>
+      <c r="B761">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A762" t="s">
+        <v>734</v>
+      </c>
+      <c r="B762">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A763" t="s">
+        <v>735</v>
+      </c>
+      <c r="B763">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A764" t="s">
+        <v>736</v>
+      </c>
+      <c r="B764">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A765" t="s">
+        <v>737</v>
+      </c>
+      <c r="B765">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A766" t="s">
+        <v>738</v>
+      </c>
+      <c r="B766">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A767" t="s">
+        <v>739</v>
+      </c>
+      <c r="B767">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A768" t="s">
+        <v>740</v>
+      </c>
+      <c r="B768">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A769" t="s">
+        <v>741</v>
+      </c>
+      <c r="B769">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A770" t="s">
+        <v>742</v>
+      </c>
+      <c r="B770">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A771" t="s">
+        <v>743</v>
+      </c>
+      <c r="B771">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A772" t="s">
+        <v>744</v>
+      </c>
+      <c r="B772">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A773" t="s">
+        <v>745</v>
+      </c>
+      <c r="B773">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A774" t="s">
+        <v>746</v>
+      </c>
+      <c r="B774">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A775" t="s">
+        <v>747</v>
+      </c>
+      <c r="B775">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A776" t="s">
+        <v>748</v>
+      </c>
+      <c r="B776">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A777" t="s">
+        <v>749</v>
+      </c>
+      <c r="B777">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A778" t="s">
+        <v>750</v>
+      </c>
+      <c r="B778">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A779" t="s">
+        <v>751</v>
+      </c>
+      <c r="B779">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A780" t="s">
+        <v>752</v>
+      </c>
+      <c r="B780">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A781" t="s">
+        <v>753</v>
+      </c>
+      <c r="B781">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A782" t="s">
+        <v>754</v>
+      </c>
+      <c r="B782">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A783" t="s">
+        <v>755</v>
+      </c>
+      <c r="B783">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A784" t="s">
+        <v>756</v>
+      </c>
+      <c r="B784">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A785" t="s">
+        <v>757</v>
+      </c>
+      <c r="B785">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A786" t="s">
+        <v>758</v>
+      </c>
+      <c r="B786">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A787" t="s">
+        <v>759</v>
+      </c>
+      <c r="B787">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A788" t="s">
+        <v>760</v>
+      </c>
+      <c r="B788">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A789" t="s">
+        <v>761</v>
+      </c>
+      <c r="B789">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A790" t="s">
+        <v>762</v>
+      </c>
+      <c r="B790">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A791" t="s">
+        <v>763</v>
+      </c>
+      <c r="B791">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A792" t="s">
+        <v>764</v>
+      </c>
+      <c r="B792">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A793" t="s">
+        <v>765</v>
+      </c>
+      <c r="B793">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A794" t="s">
+        <v>766</v>
+      </c>
+      <c r="B794">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A795" t="s">
+        <v>767</v>
+      </c>
+      <c r="B795">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A796" t="s">
+        <v>768</v>
+      </c>
+      <c r="B796">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A797" t="s">
+        <v>769</v>
+      </c>
+      <c r="B797">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A798" t="s">
+        <v>770</v>
+      </c>
+      <c r="B798">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A799" t="s">
+        <v>771</v>
+      </c>
+      <c r="B799">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A800" t="s">
+        <v>772</v>
+      </c>
+      <c r="B800">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A801" t="s">
+        <v>773</v>
+      </c>
+      <c r="B801">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A802" t="s">
+        <v>774</v>
+      </c>
+      <c r="B802">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A803" t="s">
+        <v>775</v>
+      </c>
+      <c r="B803">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A804" t="s">
+        <v>776</v>
+      </c>
+      <c r="B804">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A805" t="s">
+        <v>777</v>
+      </c>
+      <c r="B805">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A806" t="s">
+        <v>778</v>
+      </c>
+      <c r="B806">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A807" t="s">
+        <v>779</v>
+      </c>
+      <c r="B807">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A808" t="s">
+        <v>780</v>
+      </c>
+      <c r="B808">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A809" t="s">
+        <v>781</v>
+      </c>
+      <c r="B809">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A810" t="s">
+        <v>782</v>
+      </c>
+      <c r="B810">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A811" t="s">
+        <v>783</v>
+      </c>
+      <c r="B811">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A812" t="s">
+        <v>784</v>
+      </c>
+      <c r="B812">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A813" t="s">
+        <v>785</v>
+      </c>
+      <c r="B813">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A814" t="s">
+        <v>786</v>
+      </c>
+      <c r="B814">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A815" t="s">
+        <v>787</v>
+      </c>
+      <c r="B815">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A816" t="s">
+        <v>788</v>
+      </c>
+      <c r="B816">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A817" t="s">
+        <v>789</v>
+      </c>
+      <c r="B817">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A818" t="s">
+        <v>790</v>
+      </c>
+      <c r="B818">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A819" t="s">
+        <v>791</v>
+      </c>
+      <c r="B819">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A820" t="s">
+        <v>792</v>
+      </c>
+      <c r="B820">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A821" t="s">
+        <v>793</v>
+      </c>
+      <c r="B821">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A822" t="s">
+        <v>794</v>
+      </c>
+      <c r="B822">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A823" t="s">
+        <v>795</v>
+      </c>
+      <c r="B823">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A824" t="s">
+        <v>796</v>
+      </c>
+      <c r="B824">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A825" t="s">
+        <v>797</v>
+      </c>
+      <c r="B825">
+        <v>1</v>
+      </c>
+      <c r="C825" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A826" t="s">
+        <v>797</v>
+      </c>
+      <c r="B826">
+        <v>54</v>
+      </c>
+      <c r="C826" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A827" t="s">
+        <v>798</v>
+      </c>
+      <c r="B827">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="828" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A828" t="s">
+        <v>799</v>
+      </c>
+      <c r="B828">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A829" t="s">
+        <v>800</v>
+      </c>
+      <c r="B829">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A830" t="s">
+        <v>801</v>
+      </c>
+      <c r="B830">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A831" t="s">
+        <v>802</v>
+      </c>
+      <c r="B831">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A832" t="s">
+        <v>803</v>
+      </c>
+      <c r="B832">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A833" t="s">
+        <v>804</v>
+      </c>
+      <c r="B833">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A834" t="s">
+        <v>805</v>
+      </c>
+      <c r="B834">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A835" t="s">
+        <v>806</v>
+      </c>
+      <c r="B835">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A836" t="s">
+        <v>807</v>
+      </c>
+      <c r="B836">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A837" t="s">
+        <v>808</v>
+      </c>
+      <c r="B837">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A838" t="s">
+        <v>809</v>
+      </c>
+      <c r="B838">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A839" t="s">
+        <v>810</v>
+      </c>
+      <c r="B839">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A840" t="s">
+        <v>811</v>
+      </c>
+      <c r="B840">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A841" t="s">
+        <v>812</v>
+      </c>
+      <c r="B841">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A842" t="s">
+        <v>813</v>
+      </c>
+      <c r="B842">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A843" t="s">
+        <v>814</v>
+      </c>
+      <c r="B843">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A844" t="s">
+        <v>815</v>
+      </c>
+      <c r="B844">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A845" t="s">
+        <v>816</v>
+      </c>
+      <c r="B845">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A846" t="s">
+        <v>817</v>
+      </c>
+      <c r="B846">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A847" t="s">
+        <v>818</v>
+      </c>
+      <c r="B847">
+        <v>59</v>
+      </c>
+      <c r="C847" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A848" t="s">
+        <v>818</v>
+      </c>
+      <c r="B848">
+        <v>0</v>
+      </c>
+      <c r="C848" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A849" t="s">
+        <v>819</v>
+      </c>
+      <c r="B849">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A850" t="s">
+        <v>820</v>
+      </c>
+      <c r="B850">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A851" t="s">
+        <v>821</v>
+      </c>
+      <c r="B851">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A852" t="s">
+        <v>822</v>
+      </c>
+      <c r="B852">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A853" t="s">
+        <v>822</v>
+      </c>
+      <c r="B853">
+        <v>92</v>
+      </c>
+      <c r="C853" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A854" t="s">
+        <v>824</v>
+      </c>
+      <c r="B854">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A855" t="s">
+        <v>825</v>
+      </c>
+      <c r="B855">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A856" t="s">
+        <v>826</v>
+      </c>
+      <c r="B856">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A857" t="s">
+        <v>827</v>
+      </c>
+      <c r="B857">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A858" t="s">
+        <v>828</v>
+      </c>
+      <c r="B858">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A859" t="s">
+        <v>829</v>
+      </c>
+      <c r="B859">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A860" t="s">
+        <v>830</v>
+      </c>
+      <c r="B860">
+        <v>0</v>
+      </c>
+      <c r="C860" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A861" t="s">
+        <v>830</v>
+      </c>
+      <c r="B861">
+        <v>24</v>
+      </c>
+      <c r="C861" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A862" t="s">
+        <v>831</v>
+      </c>
+      <c r="B862">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A863" t="s">
+        <v>832</v>
+      </c>
+      <c r="B863">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A864" t="s">
+        <v>833</v>
+      </c>
+      <c r="B864">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A865" t="s">
+        <v>834</v>
+      </c>
+      <c r="B865">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A866" t="s">
+        <v>835</v>
+      </c>
+      <c r="B866">
+        <v>27</v>
+      </c>
+      <c r="C866" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A867" t="s">
+        <v>835</v>
+      </c>
+      <c r="B867">
+        <v>2</v>
+      </c>
+      <c r="C867" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A868" t="s">
+        <v>836</v>
+      </c>
+      <c r="B868">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A869" t="s">
+        <v>837</v>
+      </c>
+      <c r="B869">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A870" t="s">
+        <v>838</v>
+      </c>
+      <c r="B870">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A871" t="s">
+        <v>839</v>
+      </c>
+      <c r="B871">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A872" t="s">
+        <v>840</v>
+      </c>
+      <c r="B872">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A873" t="s">
+        <v>841</v>
+      </c>
+      <c r="B873">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A874" t="s">
+        <v>842</v>
+      </c>
+      <c r="B874">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A875" t="s">
+        <v>843</v>
+      </c>
+      <c r="B875">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A876" t="s">
+        <v>844</v>
+      </c>
+      <c r="B876">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A877" t="s">
+        <v>845</v>
+      </c>
+      <c r="B877">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A878" t="s">
+        <v>846</v>
+      </c>
+      <c r="B878">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A879" t="s">
+        <v>847</v>
+      </c>
+      <c r="B879">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="880" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A880" t="s">
+        <v>848</v>
+      </c>
+      <c r="B880">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A881" t="s">
+        <v>849</v>
+      </c>
+      <c r="B881">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A882" t="s">
+        <v>850</v>
+      </c>
+      <c r="B882">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A883" t="s">
+        <v>851</v>
+      </c>
+      <c r="B883">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A884" t="s">
+        <v>852</v>
+      </c>
+      <c r="B884">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A885" t="s">
+        <v>853</v>
+      </c>
+      <c r="B885">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A886" t="s">
+        <v>854</v>
+      </c>
+      <c r="B886">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A887" t="s">
+        <v>855</v>
+      </c>
+      <c r="B887">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A888" t="s">
+        <v>856</v>
+      </c>
+      <c r="B888">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A889" t="s">
+        <v>857</v>
+      </c>
+      <c r="B889">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A890" t="s">
+        <v>858</v>
+      </c>
+      <c r="B890">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A891" t="s">
+        <v>859</v>
+      </c>
+      <c r="B891">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A892" t="s">
+        <v>860</v>
+      </c>
+      <c r="B892">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A893" t="s">
+        <v>861</v>
+      </c>
+      <c r="B893">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A894" t="s">
+        <v>862</v>
+      </c>
+      <c r="B894">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A895" t="s">
+        <v>863</v>
+      </c>
+      <c r="B895">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A896" t="s">
+        <v>864</v>
+      </c>
+      <c r="B896">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A897" t="s">
+        <v>865</v>
+      </c>
+      <c r="B897">
+        <v>34</v>
+      </c>
+      <c r="C897" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A898" t="s">
+        <v>865</v>
+      </c>
+      <c r="B898">
+        <v>0</v>
+      </c>
+      <c r="C898" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A899" t="s">
+        <v>866</v>
+      </c>
+      <c r="B899">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A900" t="s">
+        <v>867</v>
+      </c>
+      <c r="B900">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A901" t="s">
+        <v>868</v>
+      </c>
+      <c r="B901">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A902" t="s">
+        <v>869</v>
+      </c>
+      <c r="B902">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A903" t="s">
+        <v>870</v>
+      </c>
+      <c r="B903">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A904" t="s">
+        <v>871</v>
+      </c>
+      <c r="B904">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A905" t="s">
+        <v>872</v>
+      </c>
+      <c r="B905">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A906" t="s">
+        <v>873</v>
+      </c>
+      <c r="B906">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A907" t="s">
+        <v>874</v>
+      </c>
+      <c r="B907">
+        <v>56</v>
+      </c>
+      <c r="C907" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A908" t="s">
+        <v>874</v>
+      </c>
+      <c r="B908">
+        <v>4</v>
+      </c>
+      <c r="C908" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A909" t="s">
+        <v>875</v>
+      </c>
+      <c r="B909">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A910" t="s">
+        <v>876</v>
+      </c>
+      <c r="B910">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A911" t="s">
+        <v>877</v>
+      </c>
+      <c r="B911">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="912" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A912" t="s">
+        <v>878</v>
+      </c>
+      <c r="B912">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A913" t="s">
+        <v>879</v>
+      </c>
+      <c r="B913">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A914" t="s">
+        <v>880</v>
+      </c>
+      <c r="B914">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A915" t="s">
+        <v>881</v>
+      </c>
+      <c r="B915">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A916" t="s">
+        <v>882</v>
+      </c>
+      <c r="B916">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A917" t="s">
+        <v>883</v>
+      </c>
+      <c r="B917">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="918" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A918" t="s">
+        <v>884</v>
+      </c>
+      <c r="B918">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A919" t="s">
+        <v>885</v>
+      </c>
+      <c r="B919">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A920" t="s">
+        <v>886</v>
+      </c>
+      <c r="B920">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="921" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A921" t="s">
+        <v>887</v>
+      </c>
+      <c r="B921">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A922" t="s">
+        <v>888</v>
+      </c>
+      <c r="B922">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A923" t="s">
+        <v>889</v>
+      </c>
+      <c r="B923">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="924" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A924" t="s">
+        <v>890</v>
+      </c>
+      <c r="B924">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="925" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A925" t="s">
+        <v>891</v>
+      </c>
+      <c r="B925">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="926" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A926" t="s">
+        <v>892</v>
+      </c>
+      <c r="B926">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="927" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A927" t="s">
+        <v>893</v>
+      </c>
+      <c r="B927">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="928" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A928" t="s">
+        <v>894</v>
+      </c>
+      <c r="B928">
+        <v>28</v>
+      </c>
+      <c r="C928" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="929" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A929" t="s">
+        <v>894</v>
+      </c>
+      <c r="B929">
+        <v>3</v>
+      </c>
+      <c r="C929" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A930" t="s">
+        <v>895</v>
+      </c>
+      <c r="B930">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="931" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A931" t="s">
+        <v>896</v>
+      </c>
+      <c r="B931">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A932" t="s">
+        <v>897</v>
+      </c>
+      <c r="B932">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="933" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A933" t="s">
+        <v>898</v>
+      </c>
+      <c r="B933">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A934" t="s">
+        <v>899</v>
+      </c>
+      <c r="B934">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="935" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A935" t="s">
+        <v>900</v>
+      </c>
+      <c r="B935">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A936" t="s">
+        <v>901</v>
+      </c>
+      <c r="B936">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A937" t="s">
+        <v>902</v>
+      </c>
+      <c r="B937">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="938" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A938" t="s">
+        <v>903</v>
+      </c>
+      <c r="B938">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A939" t="s">
+        <v>904</v>
+      </c>
+      <c r="B939">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A940" t="s">
+        <v>905</v>
+      </c>
+      <c r="B940">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A941" t="s">
+        <v>906</v>
+      </c>
+      <c r="B941">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A942" t="s">
+        <v>907</v>
+      </c>
+      <c r="B942">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A943" t="s">
+        <v>908</v>
+      </c>
+      <c r="B943">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A944" t="s">
+        <v>909</v>
+      </c>
+      <c r="B944">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A945" t="s">
+        <v>910</v>
+      </c>
+      <c r="B945">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A946" t="s">
+        <v>911</v>
+      </c>
+      <c r="B946">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A947" t="s">
+        <v>912</v>
+      </c>
+      <c r="B947">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A948" t="s">
+        <v>913</v>
+      </c>
+      <c r="B948">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A949" t="s">
+        <v>914</v>
+      </c>
+      <c r="B949">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A950" t="s">
+        <v>915</v>
+      </c>
+      <c r="B950">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A951" t="s">
+        <v>916</v>
+      </c>
+      <c r="B951">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A952" t="s">
+        <v>917</v>
+      </c>
+      <c r="B952">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A953" t="s">
+        <v>918</v>
+      </c>
+      <c r="B953">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A954" t="s">
+        <v>919</v>
+      </c>
+      <c r="B954">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A955" t="s">
+        <v>920</v>
+      </c>
+      <c r="B955">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A956" t="s">
+        <v>921</v>
+      </c>
+      <c r="B956">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A957" t="s">
+        <v>922</v>
+      </c>
+      <c r="B957">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A958" t="s">
+        <v>923</v>
+      </c>
+      <c r="B958">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A959" t="s">
+        <v>924</v>
+      </c>
+      <c r="B959">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A960" t="s">
+        <v>925</v>
+      </c>
+      <c r="B960">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A961" t="s">
+        <v>926</v>
+      </c>
+      <c r="B961">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A962" t="s">
+        <v>927</v>
+      </c>
+      <c r="B962">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A963" t="s">
+        <v>928</v>
+      </c>
+      <c r="B963">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A964" t="s">
+        <v>929</v>
+      </c>
+      <c r="B964">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A965" t="s">
+        <v>930</v>
+      </c>
+      <c r="B965">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A966" t="s">
+        <v>931</v>
+      </c>
+      <c r="B966">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A967" t="s">
+        <v>932</v>
+      </c>
+      <c r="B967">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A968" t="s">
+        <v>933</v>
+      </c>
+      <c r="B968">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A969" t="s">
+        <v>934</v>
+      </c>
+      <c r="B969">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A970" t="s">
+        <v>935</v>
+      </c>
+      <c r="B970">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A971" t="s">
+        <v>936</v>
+      </c>
+      <c r="B971">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A972" t="s">
+        <v>937</v>
+      </c>
+      <c r="B972">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A973" t="s">
+        <v>938</v>
+      </c>
+      <c r="B973">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A974" t="s">
+        <v>939</v>
+      </c>
+      <c r="B974">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A975" t="s">
+        <v>940</v>
+      </c>
+      <c r="B975">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A976" t="s">
+        <v>941</v>
+      </c>
+      <c r="B976">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A977" t="s">
+        <v>942</v>
+      </c>
+      <c r="B977">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A978" t="s">
+        <v>943</v>
+      </c>
+      <c r="B978">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A979" t="s">
+        <v>944</v>
+      </c>
+      <c r="B979">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A980" t="s">
+        <v>945</v>
+      </c>
+      <c r="B980">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A981" t="s">
+        <v>946</v>
+      </c>
+      <c r="B981">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A982" t="s">
+        <v>947</v>
+      </c>
+      <c r="B982">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A983" t="s">
+        <v>948</v>
+      </c>
+      <c r="B983">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A984" t="s">
+        <v>949</v>
+      </c>
+      <c r="B984">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A985" t="s">
+        <v>950</v>
+      </c>
+      <c r="B985">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A986" t="s">
+        <v>951</v>
+      </c>
+      <c r="B986">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A987" t="s">
+        <v>952</v>
+      </c>
+      <c r="B987">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A988" t="s">
+        <v>953</v>
+      </c>
+      <c r="B988">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A989" t="s">
+        <v>954</v>
+      </c>
+      <c r="B989">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A990" t="s">
+        <v>955</v>
+      </c>
+      <c r="B990">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A991" t="s">
+        <v>956</v>
+      </c>
+      <c r="B991">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A992" t="s">
+        <v>957</v>
+      </c>
+      <c r="B992">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A993" t="s">
+        <v>958</v>
+      </c>
+      <c r="B993">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A994" t="s">
+        <v>959</v>
+      </c>
+      <c r="B994">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A995" t="s">
+        <v>960</v>
+      </c>
+      <c r="B995">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A996" t="s">
+        <v>961</v>
+      </c>
+      <c r="B996">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A997" t="s">
+        <v>962</v>
+      </c>
+      <c r="B997">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A998" t="s">
+        <v>963</v>
+      </c>
+      <c r="B998">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A999" t="s">
+        <v>964</v>
+      </c>
+      <c r="B999">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1000" t="s">
+        <v>965</v>
+      </c>
+      <c r="B1000">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1001" t="s">
+        <v>966</v>
+      </c>
+      <c r="B1001">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1002" t="s">
+        <v>967</v>
+      </c>
+      <c r="B1002">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1003" t="s">
+        <v>968</v>
+      </c>
+      <c r="B1003">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1004" t="s">
+        <v>969</v>
+      </c>
+      <c r="B1004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1005" t="s">
+        <v>970</v>
+      </c>
+      <c r="B1005">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1006" t="s">
+        <v>971</v>
+      </c>
+      <c r="B1006">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1007" t="s">
+        <v>972</v>
+      </c>
+      <c r="B1007">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1008" t="s">
+        <v>973</v>
+      </c>
+      <c r="B1008">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1009" t="s">
+        <v>974</v>
+      </c>
+      <c r="B1009">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1010" t="s">
+        <v>975</v>
+      </c>
+      <c r="B1010">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1011" t="s">
+        <v>976</v>
+      </c>
+      <c r="B1011">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1012" t="s">
+        <v>977</v>
+      </c>
+      <c r="B1012">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1013" t="s">
+        <v>978</v>
+      </c>
+      <c r="B1013">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1014" t="s">
+        <v>979</v>
+      </c>
+      <c r="B1014">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1015" t="s">
+        <v>980</v>
+      </c>
+      <c r="B1015">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1016" t="s">
+        <v>981</v>
+      </c>
+      <c r="B1016">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1017" t="s">
+        <v>982</v>
+      </c>
+      <c r="B1017">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1018" t="s">
+        <v>983</v>
+      </c>
+      <c r="B1018">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1019" t="s">
+        <v>984</v>
+      </c>
+      <c r="B1019">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1020" t="s">
+        <v>985</v>
+      </c>
+      <c r="B1020">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1021" t="s">
+        <v>986</v>
+      </c>
+      <c r="B1021">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1022" t="s">
+        <v>987</v>
+      </c>
+      <c r="B1022">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1023" t="s">
+        <v>988</v>
+      </c>
+      <c r="B1023">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1024" t="s">
+        <v>989</v>
+      </c>
+      <c r="B1024">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1025" t="s">
+        <v>990</v>
+      </c>
+      <c r="B1025">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1026" t="s">
+        <v>991</v>
+      </c>
+      <c r="B1026">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1027" t="s">
+        <v>992</v>
+      </c>
+      <c r="B1027">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1028" t="s">
+        <v>993</v>
+      </c>
+      <c r="B1028">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1029" t="s">
+        <v>994</v>
+      </c>
+      <c r="B1029">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1030" t="s">
+        <v>995</v>
+      </c>
+      <c r="B1030">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1031" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1031">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1032" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1032">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1033" t="s">
+        <v>998</v>
+      </c>
+      <c r="B1033">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1034" t="s">
+        <v>999</v>
+      </c>
+      <c r="B1034">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1035" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B1035">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1036" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B1036">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1037" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B1037">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1038" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B1038">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1039" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B1039">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1040" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B1040">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1041" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B1041">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1042" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B1042">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1043" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B1043">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1044" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B1044">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1045" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B1045">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1046" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B1046">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1047" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B1047">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1048" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B1048">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1049" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B1049">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1050" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B1050">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1051" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B1051">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1052" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B1052">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1053" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B1053">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1054" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1054">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1055" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B1055">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1056" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B1056">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1057" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B1057">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1058" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B1058">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1059" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B1059">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1060" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B1060">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1061" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B1061">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1062" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1062">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1063" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B1063">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1064" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B1064">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1065" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B1065">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1066" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B1066">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1067" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B1067">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1068" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B1068">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1069" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B1069">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1070" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B1070">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1071" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B1071">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1072" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B1072">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1073" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B1073">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1074" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B1074">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1075" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B1075">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1076" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B1076">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1077" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B1077">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1078" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B1078">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1079" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B1079">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1080" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B1080">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1081" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B1081">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1082" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B1082">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1083" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B1083">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1084" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B1084">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1085" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B1085">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1086" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B1086">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1087" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B1087">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1088" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B1088">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1089" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B1089">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1090" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B1090">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1091" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B1091">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1092" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B1092">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1093" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B1093">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1094" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B1094">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1095" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B1095">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1096" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B1096">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1097" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B1097">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1098" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B1098">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1099" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B1099">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1100" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B1100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1101" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1102" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1102">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1103" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1104" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B1104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1105" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B1105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1106" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1106">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1107" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B1107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1108" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B1108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1109" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1109">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1110" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1111" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B1111">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1112" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B1112">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1113" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B1113">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1114" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B1114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1115" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B1115">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1116" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B1116">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1117" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B1117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1118" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B1118">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1119" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B1119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1120" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B1120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1121" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B1121">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/NFL_Success_Predictor/playerswAV.xlsx
+++ b/NFL_Success_Predictor/playerswAV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d5bd67dbb09b163/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="765" documentId="8_{1BB5FBAA-0354-4F72-A96B-D826B701C5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F578920-102E-44C5-80DD-EF21D706CCAC}"/>
+  <xr:revisionPtr revIDLastSave="774" documentId="8_{1BB5FBAA-0354-4F72-A96B-D826B701C5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74A38FE7-14B6-4A13-97AD-8228CDB8A936}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{AEF9A23E-D0FE-4196-8C6B-02E1D14DEEDB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="1616">
   <si>
     <t>Name</t>
   </si>
@@ -3300,6 +3300,1590 @@
   </si>
   <si>
     <t>Dave Yovanovits</t>
+  </si>
+  <si>
+    <t>Jason Cabinda</t>
+  </si>
+  <si>
+    <t>Travaris Cadet</t>
+  </si>
+  <si>
+    <t>Deon Cain</t>
+  </si>
+  <si>
+    <t>Jeremy Cain</t>
+  </si>
+  <si>
+    <t>Jeremy Calahan</t>
+  </si>
+  <si>
+    <t>Andre Caldwell</t>
+  </si>
+  <si>
+    <t>Antoine Caldwell</t>
+  </si>
+  <si>
+    <t>David Caldwell</t>
+  </si>
+  <si>
+    <t>Reche Caldwell</t>
+  </si>
+  <si>
+    <t>Trey Caldwell</t>
+  </si>
+  <si>
+    <t>Brian Calhoun</t>
+  </si>
+  <si>
+    <t>Duke Calhoun</t>
+  </si>
+  <si>
+    <t>Shaq Calhoun</t>
+  </si>
+  <si>
+    <t>Shilique Calhoun</t>
+  </si>
+  <si>
+    <t>Taveze Calhoun</t>
+  </si>
+  <si>
+    <t>Tyrone Calico</t>
+  </si>
+  <si>
+    <t>Austin Calitro</t>
+  </si>
+  <si>
+    <t>Bryce Callahan</t>
+  </si>
+  <si>
+    <t>Joe Callahan</t>
+  </si>
+  <si>
+    <t>Antonio Callaway</t>
+  </si>
+  <si>
+    <t>Rob Callaway</t>
+  </si>
+  <si>
+    <t>Rocky Calmus</t>
+  </si>
+  <si>
+    <t>Jorrick Calvin</t>
+  </si>
+  <si>
+    <t>Greg Camarillo</t>
+  </si>
+  <si>
+    <t>Jordan Cameron</t>
+  </si>
+  <si>
+    <t>Michael Campanaro</t>
+  </si>
+  <si>
+    <t>Bruce Campbell</t>
+  </si>
+  <si>
+    <t>Calais Campbell</t>
+  </si>
+  <si>
+    <t>Caleb Campbell</t>
+  </si>
+  <si>
+    <t>D.J. Campbell</t>
+  </si>
+  <si>
+    <t>De'Vondre Campbell</t>
+  </si>
+  <si>
+    <t>Ibraheim Campbell</t>
+  </si>
+  <si>
+    <t>Jason Campbell</t>
+  </si>
+  <si>
+    <t>Kelly Campbell</t>
+  </si>
+  <si>
+    <t>Khary Campbell</t>
+  </si>
+  <si>
+    <t>Michael Campbell</t>
+  </si>
+  <si>
+    <t>Parris Campbell</t>
+  </si>
+  <si>
+    <t>Tommie Campbell</t>
+  </si>
+  <si>
+    <t>Kameron Canaday</t>
+  </si>
+  <si>
+    <t>Maurice Canady</t>
+  </si>
+  <si>
+    <t>Trung Canidate</t>
+  </si>
+  <si>
+    <t>A.J. Cann</t>
+  </si>
+  <si>
+    <t>Anthony Cannon</t>
+  </si>
+  <si>
+    <t>Marcus Cannon</t>
+  </si>
+  <si>
+    <t>Trenton Cannon</t>
+  </si>
+  <si>
+    <t>Barry Cantrell</t>
+  </si>
+  <si>
+    <t>Rolando Cantu</t>
+  </si>
+  <si>
+    <t>Chris Canty</t>
+  </si>
+  <si>
+    <t>Selvish Capers</t>
+  </si>
+  <si>
+    <t>Nordly Capi</t>
+  </si>
+  <si>
+    <t>Alex Cappa</t>
+  </si>
+  <si>
+    <t>Tank Carder</t>
+  </si>
+  <si>
+    <t>Joe Cardona</t>
+  </si>
+  <si>
+    <t>Don Carey</t>
+  </si>
+  <si>
+    <t>Ka'Deem Carey</t>
+  </si>
+  <si>
+    <t>Vernon Carey</t>
+  </si>
+  <si>
+    <t>Steve Cargile</t>
+  </si>
+  <si>
+    <t>Gabe Carimi</t>
+  </si>
+  <si>
+    <t>Cooper Carlisle</t>
+  </si>
+  <si>
+    <t>Daniel Carlson</t>
+  </si>
+  <si>
+    <t>John Carlson</t>
+  </si>
+  <si>
+    <t>Stephen Carlson</t>
+  </si>
+  <si>
+    <t>Jon Carman</t>
+  </si>
+  <si>
+    <t>Roc Carmichael</t>
+  </si>
+  <si>
+    <t>Bobby Carpenter</t>
+  </si>
+  <si>
+    <t>Dan Carpenter</t>
+  </si>
+  <si>
+    <t>Dwaine Carpenter</t>
+  </si>
+  <si>
+    <t>James Carpenter</t>
+  </si>
+  <si>
+    <t>Rudy Carpenter</t>
+  </si>
+  <si>
+    <t>Austin Carr</t>
+  </si>
+  <si>
+    <t>Brandon Carr</t>
+  </si>
+  <si>
+    <t>Chris Carr</t>
+  </si>
+  <si>
+    <t>David Carr</t>
+  </si>
+  <si>
+    <t>Derek Carr</t>
+  </si>
+  <si>
+    <t>Deveron Carr</t>
+  </si>
+  <si>
+    <t>Tank Carradine</t>
+  </si>
+  <si>
+    <t>Josh Carraway</t>
+  </si>
+  <si>
+    <t>Ryan Carrethers</t>
+  </si>
+  <si>
+    <t>T.J. Carrie</t>
+  </si>
+  <si>
+    <t>Derek Carrier</t>
+  </si>
+  <si>
+    <t>Adam Carriker</t>
+  </si>
+  <si>
+    <t>Alex Carrington</t>
+  </si>
+  <si>
+    <t>Paul Carrington</t>
+  </si>
+  <si>
+    <t>Ahmad Carroll</t>
+  </si>
+  <si>
+    <t>Nolan Carroll</t>
+  </si>
+  <si>
+    <t>Travis Carroll</t>
+  </si>
+  <si>
+    <t>Leonte Carroo</t>
+  </si>
+  <si>
+    <t>Chris Carson</t>
+  </si>
+  <si>
+    <t>Glenn Carson</t>
+  </si>
+  <si>
+    <t>Leonardo Carson</t>
+  </si>
+  <si>
+    <t>Tra Carson</t>
+  </si>
+  <si>
+    <t>Jordan Carstens</t>
+  </si>
+  <si>
+    <t>Robert Carswell</t>
+  </si>
+  <si>
+    <t>Alex Carter</t>
+  </si>
+  <si>
+    <t>Andre Carter</t>
+  </si>
+  <si>
+    <t>Brandon Carter</t>
+  </si>
+  <si>
+    <t>Bruce Carter</t>
+  </si>
+  <si>
+    <t>Cethan Carter</t>
+  </si>
+  <si>
+    <t>Chris Carter</t>
+  </si>
+  <si>
+    <t>David Carter</t>
+  </si>
+  <si>
+    <t>DeAndre Carter</t>
+  </si>
+  <si>
+    <t>Delone Carter</t>
+  </si>
+  <si>
+    <t>Drew Carter</t>
+  </si>
+  <si>
+    <t>Dyshod Carter</t>
+  </si>
+  <si>
+    <t>Jamal Carter</t>
+  </si>
+  <si>
+    <t>Jason Carter</t>
+  </si>
+  <si>
+    <t>Jermaine Carter Jr.</t>
+  </si>
+  <si>
+    <t>Jerome Carter</t>
+  </si>
+  <si>
+    <t>Jonathan Carter</t>
+  </si>
+  <si>
+    <t>Kerry Carter</t>
+  </si>
+  <si>
+    <t>Kyle Carter</t>
+  </si>
+  <si>
+    <t>Lorenzo Carter</t>
+  </si>
+  <si>
+    <t>Quincy Carter</t>
+  </si>
+  <si>
+    <t>Quinton Carter</t>
+  </si>
+  <si>
+    <t>Tim Carter</t>
+  </si>
+  <si>
+    <t>Todd Carter</t>
+  </si>
+  <si>
+    <t>Tony Carter</t>
+  </si>
+  <si>
+    <t>Tyrone Carter</t>
+  </si>
+  <si>
+    <t>Ran Carthon</t>
+  </si>
+  <si>
+    <t>Rock Cartwright</t>
+  </si>
+  <si>
+    <t>Chance Casey</t>
+  </si>
+  <si>
+    <t>James Casey</t>
+  </si>
+  <si>
+    <t>Jurrell Casey</t>
+  </si>
+  <si>
+    <t>Antoine Cash</t>
+  </si>
+  <si>
+    <t>Chris Cash</t>
+  </si>
+  <si>
+    <t>Jeremy Cash</t>
+  </si>
+  <si>
+    <t>Blake Cashman</t>
+  </si>
+  <si>
+    <t>Jonathan Casillas</t>
+  </si>
+  <si>
+    <t>Antoine Cason</t>
+  </si>
+  <si>
+    <t>Aveion Cason</t>
+  </si>
+  <si>
+    <t>Matt Cassel</t>
+  </si>
+  <si>
+    <t>Simeon Castille</t>
+  </si>
+  <si>
+    <t>Tim Castille</t>
+  </si>
+  <si>
+    <t>Luis Castillo</t>
+  </si>
+  <si>
+    <t>Anthony Castonzo</t>
+  </si>
+  <si>
+    <t>Tyler Catalina</t>
+  </si>
+  <si>
+    <t>Chandler Catanzaro</t>
+  </si>
+  <si>
+    <t>Mike Catapano</t>
+  </si>
+  <si>
+    <t>Sean Cattouse</t>
+  </si>
+  <si>
+    <t>Jehuu Caulcrick</t>
+  </si>
+  <si>
+    <t>Mike Caussin</t>
+  </si>
+  <si>
+    <t>Quinton Caver</t>
+  </si>
+  <si>
+    <t>Kwame Cavil</t>
+  </si>
+  <si>
+    <t>Brent Celek</t>
+  </si>
+  <si>
+    <t>Garrett Celek</t>
+  </si>
+  <si>
+    <t>Oliver Celestin</t>
+  </si>
+  <si>
+    <t>Matt Cercone</t>
+  </si>
+  <si>
+    <t>Marq Cerqua</t>
+  </si>
+  <si>
+    <t>Jacques Cesaire</t>
+  </si>
+  <si>
+    <t>Chris Chamberlain</t>
+  </si>
+  <si>
+    <t>Frank Chamberlin</t>
+  </si>
+  <si>
+    <t>Chris Chambers</t>
+  </si>
+  <si>
+    <t>Kirk Chambers</t>
+  </si>
+  <si>
+    <t>Kam Chancellor</t>
+  </si>
+  <si>
+    <t>Jeff Chandler</t>
+  </si>
+  <si>
+    <t>Nate Chandler</t>
+  </si>
+  <si>
+    <t>Scott Chandler</t>
+  </si>
+  <si>
+    <t>Sean Chandler</t>
+  </si>
+  <si>
+    <t>Jamar Chaney</t>
+  </si>
+  <si>
+    <t>Shaun Chapas</t>
+  </si>
+  <si>
+    <t>Doug Chapman</t>
+  </si>
+  <si>
+    <t>Josh Chapman</t>
+  </si>
+  <si>
+    <t>Kory Chapman</t>
+  </si>
+  <si>
+    <t>Lamar Chapman</t>
+  </si>
+  <si>
+    <t>DJ Chark</t>
+  </si>
+  <si>
+    <t>Jamaal Charles</t>
+  </si>
+  <si>
+    <t>Orson Charles</t>
+  </si>
+  <si>
+    <t>Stefan Charles</t>
+  </si>
+  <si>
+    <t>Jeff Charleston</t>
+  </si>
+  <si>
+    <t>Ike Charlton</t>
+  </si>
+  <si>
+    <t>Taco Charlton</t>
+  </si>
+  <si>
+    <t>Matt Chatham</t>
+  </si>
+  <si>
+    <t>Antonio Chatman</t>
+  </si>
+  <si>
+    <t>Jesse Chatman</t>
+  </si>
+  <si>
+    <t>Stephen Cheek</t>
+  </si>
+  <si>
+    <t>Chimdi Chekwa</t>
+  </si>
+  <si>
+    <t>Gosder Cherilus</t>
+  </si>
+  <si>
+    <t>Jehu Chesson</t>
+  </si>
+  <si>
+    <t>Chris Chester</t>
+  </si>
+  <si>
+    <t>Randy Chevrier</t>
+  </si>
+  <si>
+    <t>John Chick</t>
+  </si>
+  <si>
+    <t>Anthony Chickillo</t>
+  </si>
+  <si>
+    <t>Bam Childress</t>
+  </si>
+  <si>
+    <t>Brandon Chillar</t>
+  </si>
+  <si>
+    <t>Tashard Choice</t>
+  </si>
+  <si>
+    <t>Brad Christenson</t>
+  </si>
+  <si>
+    <t>Gerald Christian</t>
+  </si>
+  <si>
+    <t>Geron Christian</t>
+  </si>
+  <si>
+    <t>Marqui Christian</t>
+  </si>
+  <si>
+    <t>Bradley Chubb</t>
+  </si>
+  <si>
+    <t>Nick Chubb</t>
+  </si>
+  <si>
+    <t>Patrick Chukwurah</t>
+  </si>
+  <si>
+    <t>Patrick Chung</t>
+  </si>
+  <si>
+    <t>Jordan Chunn</t>
+  </si>
+  <si>
+    <t>Barry Church</t>
+  </si>
+  <si>
+    <t>Jack Cichy</t>
+  </si>
+  <si>
+    <t>Brad Cieslak</t>
+  </si>
+  <si>
+    <t>Vinny Ciurciu</t>
+  </si>
+  <si>
+    <t>Tyson Clabo</t>
+  </si>
+  <si>
+    <t>Ryan Clady</t>
+  </si>
+  <si>
+    <t>Morris Claiborne</t>
+  </si>
+  <si>
+    <t>Kendrick Clancy</t>
+  </si>
+  <si>
+    <t>Will Clapp</t>
+  </si>
+  <si>
+    <t>Travis Claridge</t>
+  </si>
+  <si>
+    <t>Brian Clark</t>
+  </si>
+  <si>
+    <t>Chris Clark</t>
+  </si>
+  <si>
+    <t>Chuck Clark</t>
+  </si>
+  <si>
+    <t>Corey Clark</t>
+  </si>
+  <si>
+    <t>Dallas Clark</t>
+  </si>
+  <si>
+    <t>Danny Clark</t>
+  </si>
+  <si>
+    <t>Darius Clark</t>
+  </si>
+  <si>
+    <t>Devin Clark</t>
+  </si>
+  <si>
+    <t>Frank Clark</t>
+  </si>
+  <si>
+    <t>Jeremy Clark</t>
+  </si>
+  <si>
+    <t>Kenny Clark</t>
+  </si>
+  <si>
+    <t>Le'Raven Clark</t>
+  </si>
+  <si>
+    <t>Michael Clark</t>
+  </si>
+  <si>
+    <t>Ryan Clark</t>
+  </si>
+  <si>
+    <t>Adrien Clarke</t>
+  </si>
+  <si>
+    <t>Will Clarke</t>
+  </si>
+  <si>
+    <t>Jeromey Clary</t>
+  </si>
+  <si>
+    <t>Blaine Clausell</t>
+  </si>
+  <si>
+    <t>Jimmy Clausen</t>
+  </si>
+  <si>
+    <t>Jared Clauss</t>
+  </si>
+  <si>
+    <t>Ben Claxton</t>
+  </si>
+  <si>
+    <t>Charles Clay</t>
+  </si>
+  <si>
+    <t>John Clay</t>
+  </si>
+  <si>
+    <t>Kaelin Clay</t>
+  </si>
+  <si>
+    <t>Adrian Clayborn</t>
+  </si>
+  <si>
+    <t>DeVone Claybrooks</t>
+  </si>
+  <si>
+    <t>Felipe Claybrooks</t>
+  </si>
+  <si>
+    <t>Carey Clayton</t>
+  </si>
+  <si>
+    <t>Keenan Clayton</t>
+  </si>
+  <si>
+    <t>Mark Clayton</t>
+  </si>
+  <si>
+    <t>Michael Clayton</t>
+  </si>
+  <si>
+    <t>Thomas Clayton</t>
+  </si>
+  <si>
+    <t>Zach Clayton</t>
+  </si>
+  <si>
+    <t>Emmett Cleary</t>
+  </si>
+  <si>
+    <t>Kellen Clemens</t>
+  </si>
+  <si>
+    <t>Corey Clement</t>
+  </si>
+  <si>
+    <t>Chunky Clements</t>
+  </si>
+  <si>
+    <t>Nate Clements</t>
+  </si>
+  <si>
+    <t>T.J. Clemmings</t>
+  </si>
+  <si>
+    <t>Chris Clemons</t>
+  </si>
+  <si>
+    <t>Nic Clemons</t>
+  </si>
+  <si>
+    <t>Toney Clemons</t>
+  </si>
+  <si>
+    <t>Asante Cleveland</t>
+  </si>
+  <si>
+    <t>Chad Clifton</t>
+  </si>
+  <si>
+    <t>Ha Ha Clinton-Dix</t>
+  </si>
+  <si>
+    <t>Colin Cloherty</t>
+  </si>
+  <si>
+    <t>David Clowney</t>
+  </si>
+  <si>
+    <t>Jadeveon Clowney</t>
+  </si>
+  <si>
+    <t>Tyler Clutts</t>
+  </si>
+  <si>
+    <t>Sammie Coates</t>
+  </si>
+  <si>
+    <t>Sherrod Coates</t>
+  </si>
+  <si>
+    <t>Daniel Coats</t>
+  </si>
+  <si>
+    <t>David Cobb</t>
+  </si>
+  <si>
+    <t>DeAndra Cobb</t>
+  </si>
+  <si>
+    <t>Randall Cobb</t>
+  </si>
+  <si>
+    <t>Cedric Cobbs</t>
+  </si>
+  <si>
+    <t>Patrick Cobbs</t>
+  </si>
+  <si>
+    <t>R.J. Cobbs</t>
+  </si>
+  <si>
+    <t>Avon Cobourne</t>
+  </si>
+  <si>
+    <t>Colin Cochart</t>
+  </si>
+  <si>
+    <t>Earl Cochran</t>
+  </si>
+  <si>
+    <t>Ross Cockrell</t>
+  </si>
+  <si>
+    <t>Nakia Codie</t>
+  </si>
+  <si>
+    <t>Dan Cody</t>
+  </si>
+  <si>
+    <t>Shaun Cody</t>
+  </si>
+  <si>
+    <t>Tay Cody</t>
+  </si>
+  <si>
+    <t>Terrence Cody</t>
+  </si>
+  <si>
+    <t>Michael Coe</t>
+  </si>
+  <si>
+    <t>Rodney Coe</t>
+  </si>
+  <si>
+    <t>Glen Coffee</t>
+  </si>
+  <si>
+    <t>Chase Coffman</t>
+  </si>
+  <si>
+    <t>Barry Cofield</t>
+  </si>
+  <si>
+    <t>Dustin Cohen</t>
+  </si>
+  <si>
+    <t>Joe Cohen</t>
+  </si>
+  <si>
+    <t>Landon Cohen</t>
+  </si>
+  <si>
+    <t>Tarik Cohen</t>
+  </si>
+  <si>
+    <t>Adrian Colbert</t>
+  </si>
+  <si>
+    <t>Keary Colbert</t>
+  </si>
+  <si>
+    <t>Ricardo Colclough</t>
+  </si>
+  <si>
+    <t>AJ Cole III</t>
+  </si>
+  <si>
+    <t>Audie Cole</t>
+  </si>
+  <si>
+    <t>Chris Cole</t>
+  </si>
+  <si>
+    <t>Colin Cole</t>
+  </si>
+  <si>
+    <t>Dylan Cole</t>
+  </si>
+  <si>
+    <t>Justin Cole</t>
+  </si>
+  <si>
+    <t>Keelan Cole</t>
+  </si>
+  <si>
+    <t>Marquice Cole</t>
+  </si>
+  <si>
+    <t>Mason Cole</t>
+  </si>
+  <si>
+    <t>Nick Cole</t>
+  </si>
+  <si>
+    <t>Trent Cole</t>
+  </si>
+  <si>
+    <t>Alonzo Coleman</t>
+  </si>
+  <si>
+    <t>Andre Coleman</t>
+  </si>
+  <si>
+    <t>Antonio Coleman</t>
+  </si>
+  <si>
+    <t>Brandon Coleman</t>
+  </si>
+  <si>
+    <t>Chris Coleman</t>
+  </si>
+  <si>
+    <t>Clarence Coleman</t>
+  </si>
+  <si>
+    <t>Corey Coleman</t>
+  </si>
+  <si>
+    <t>Cosey Coleman</t>
+  </si>
+  <si>
+    <t>Davon Coleman</t>
+  </si>
+  <si>
+    <t>Deandre Coleman</t>
+  </si>
+  <si>
+    <t>Derrick Coleman</t>
+  </si>
+  <si>
+    <t>Drew Coleman</t>
+  </si>
+  <si>
+    <t>Erik Coleman</t>
+  </si>
+  <si>
+    <t>Fred Coleman</t>
+  </si>
+  <si>
+    <t>Justin Coleman</t>
+  </si>
+  <si>
+    <t>KaRon Coleman</t>
+  </si>
+  <si>
+    <t>Kenyon Coleman</t>
+  </si>
+  <si>
+    <t>Kurt Coleman</t>
+  </si>
+  <si>
+    <t>Lavon Coleman</t>
+  </si>
+  <si>
+    <t>Shon Coleman</t>
+  </si>
+  <si>
+    <t>Tevin Coleman</t>
+  </si>
+  <si>
+    <t>Travis Coleman</t>
+  </si>
+  <si>
+    <t>Xavier Coleman</t>
+  </si>
+  <si>
+    <t>Laveranues Coles</t>
+  </si>
+  <si>
+    <t>Kevis Coley</t>
+  </si>
+  <si>
+    <t>Stacy Coley</t>
+  </si>
+  <si>
+    <t>Trevon Coley</t>
+  </si>
+  <si>
+    <t>Daryn Colledge</t>
+  </si>
+  <si>
+    <t>Austin Collie</t>
+  </si>
+  <si>
+    <t>L.J. Collier</t>
+  </si>
+  <si>
+    <t>Richard Collier</t>
+  </si>
+  <si>
+    <t>Alex Collins</t>
+  </si>
+  <si>
+    <t>Anthony Collins</t>
+  </si>
+  <si>
+    <t>Aviante Collins</t>
+  </si>
+  <si>
+    <t>Cameron Collins</t>
+  </si>
+  <si>
+    <t>Jalen Collins</t>
+  </si>
+  <si>
+    <t>Jamie Collins</t>
+  </si>
+  <si>
+    <t>Javier Collins</t>
+  </si>
+  <si>
+    <t>Jed Collins</t>
+  </si>
+  <si>
+    <t>Jerome Collins</t>
+  </si>
+  <si>
+    <t>La'el Collins</t>
+  </si>
+  <si>
+    <t>Landon Collins</t>
+  </si>
+  <si>
+    <t>Maliek Collins</t>
+  </si>
+  <si>
+    <t>Nate Collins</t>
+  </si>
+  <si>
+    <t>Nick Collins</t>
+  </si>
+  <si>
+    <t>Marc Colombo</t>
+  </si>
+  <si>
+    <t>Willie Colon</t>
+  </si>
+  <si>
+    <t>Britton Colquitt</t>
+  </si>
+  <si>
+    <t>Dustin Colquitt</t>
+  </si>
+  <si>
+    <t>Marques Colston</t>
+  </si>
+  <si>
+    <t>Aaron Colvin</t>
+  </si>
+  <si>
+    <t>Chris Combs</t>
+  </si>
+  <si>
+    <t>Derek Combs</t>
+  </si>
+  <si>
+    <t>John Cominsky</t>
+  </si>
+  <si>
+    <t>Sanders Commings</t>
+  </si>
+  <si>
+    <t>Jonathan Compas</t>
+  </si>
+  <si>
+    <t>Tom Compton</t>
+  </si>
+  <si>
+    <t>William Compton</t>
+  </si>
+  <si>
+    <t>Jon Condo</t>
+  </si>
+  <si>
+    <t>Brannon Condren</t>
+  </si>
+  <si>
+    <t>Kevin Cone</t>
+  </si>
+  <si>
+    <t>Jack Conklin</t>
+  </si>
+  <si>
+    <t>Tyler Conklin</t>
+  </si>
+  <si>
+    <t>Chris Conley</t>
+  </si>
+  <si>
+    <t>Gareon Conley</t>
+  </si>
+  <si>
+    <t>T.J. Conley</t>
+  </si>
+  <si>
+    <t>Ryan Connelly</t>
+  </si>
+  <si>
+    <t>James Conner</t>
+  </si>
+  <si>
+    <t>John Conner</t>
+  </si>
+  <si>
+    <t>Kavell Conner</t>
+  </si>
+  <si>
+    <t>Dan Connolly</t>
+  </si>
+  <si>
+    <t>Dan Connor</t>
+  </si>
+  <si>
+    <t>Scott Connot</t>
+  </si>
+  <si>
+    <t>Sean Conover</t>
+  </si>
+  <si>
+    <t>Matt Conrath</t>
+  </si>
+  <si>
+    <t>Sean Considine</t>
+  </si>
+  <si>
+    <t>Chris Conte</t>
+  </si>
+  <si>
+    <t>Chris Cook</t>
+  </si>
+  <si>
+    <t>Connor Cook</t>
+  </si>
+  <si>
+    <t>Dalvin Cook</t>
+  </si>
+  <si>
+    <t>Damion Cook</t>
+  </si>
+  <si>
+    <t>Emanuel Cook</t>
+  </si>
+  <si>
+    <t>Erik Cook</t>
+  </si>
+  <si>
+    <t>Jameel Cook</t>
+  </si>
+  <si>
+    <t>Jared Cook</t>
+  </si>
+  <si>
+    <t>Kyle Cook</t>
+  </si>
+  <si>
+    <t>Ryan Cook</t>
+  </si>
+  <si>
+    <t>Logan Cooke</t>
+  </si>
+  <si>
+    <t>Brandin Cooks</t>
+  </si>
+  <si>
+    <t>Chris Cooley</t>
+  </si>
+  <si>
+    <t>Travis Coons</t>
+  </si>
+  <si>
+    <t>Amari Cooper</t>
+  </si>
+  <si>
+    <t>Chris Cooper</t>
+  </si>
+  <si>
+    <t>Deke Cooper</t>
+  </si>
+  <si>
+    <t>Jarrod Cooper</t>
+  </si>
+  <si>
+    <t>Jon Cooper</t>
+  </si>
+  <si>
+    <t>Jonathan Cooper</t>
+  </si>
+  <si>
+    <t>Josh Cooper</t>
+  </si>
+  <si>
+    <t>Marcus Cooper</t>
+  </si>
+  <si>
+    <t>Marquis Cooper</t>
+  </si>
+  <si>
+    <t>Pharoh Cooper</t>
+  </si>
+  <si>
+    <t>Rafael Cooper</t>
+  </si>
+  <si>
+    <t>Riley Cooper</t>
+  </si>
+  <si>
+    <t>Stephen Cooper</t>
+  </si>
+  <si>
+    <t>Xavier Cooper</t>
+  </si>
+  <si>
+    <t>Brandon Copeland</t>
+  </si>
+  <si>
+    <t>Quinton Coples</t>
+  </si>
+  <si>
+    <t>Terrance Copper</t>
+  </si>
+  <si>
+    <t>Austin Corbett</t>
+  </si>
+  <si>
+    <t>Jim Cordle</t>
+  </si>
+  <si>
+    <t>Jorge Cordova</t>
+  </si>
+  <si>
+    <t>Cody Core</t>
+  </si>
+  <si>
+    <t>Jack Cornell</t>
+  </si>
+  <si>
+    <t>Reggie Corner</t>
+  </si>
+  <si>
+    <t>Paul Cornick</t>
+  </si>
+  <si>
+    <t>Kamalei Correa</t>
+  </si>
+  <si>
+    <t>Jon Corto</t>
+  </si>
+  <si>
+    <t>Quan Cosby</t>
+  </si>
+  <si>
+    <t>Dave Costa</t>
+  </si>
+  <si>
+    <t>Phil Costa</t>
+  </si>
+  <si>
+    <t>Blake Costanzo</t>
+  </si>
+  <si>
+    <t>Junius Coston</t>
+  </si>
+  <si>
+    <t>Jerricho Cotchery</t>
+  </si>
+  <si>
+    <t>Brad Cottam</t>
+  </si>
+  <si>
+    <t>Lester Cotton</t>
+  </si>
+  <si>
+    <t>Blake Countess</t>
+  </si>
+  <si>
+    <t>Jerome Couplin</t>
+  </si>
+  <si>
+    <t>Kirk Cousins</t>
+  </si>
+  <si>
+    <t>Oniel Cousins</t>
+  </si>
+  <si>
+    <t>Keke Coutee</t>
+  </si>
+  <si>
+    <t>Brandon Coutu</t>
+  </si>
+  <si>
+    <t>Chris Covington</t>
+  </si>
+  <si>
+    <t>Christian Covington</t>
+  </si>
+  <si>
+    <t>Rashaad Coward</t>
+  </si>
+  <si>
+    <t>Byron Cowart</t>
+  </si>
+  <si>
+    <t>James Cowser</t>
+  </si>
+  <si>
+    <t>Delbert Cowsette</t>
+  </si>
+  <si>
+    <t>Bryan Cox Jr.</t>
+  </si>
+  <si>
+    <t>Chandler Cox</t>
+  </si>
+  <si>
+    <t>Curome Cox</t>
+  </si>
+  <si>
+    <t>Demetrious Cox</t>
+  </si>
+  <si>
+    <t>Derek Cox</t>
+  </si>
+  <si>
+    <t>Fletcher Cox</t>
+  </si>
+  <si>
+    <t>Kennard Cox</t>
+  </si>
+  <si>
+    <t>Michael Cox</t>
+  </si>
+  <si>
+    <t>Mike Cox</t>
+  </si>
+  <si>
+    <t>Morgan Cox</t>
+  </si>
+  <si>
+    <t>Perrish Cox</t>
+  </si>
+  <si>
+    <t>Renard Cox</t>
+  </si>
+  <si>
+    <t>Torrie Cox</t>
+  </si>
+  <si>
+    <t>Brock Coyle</t>
+  </si>
+  <si>
+    <t>Shawn Crable</t>
+  </si>
+  <si>
+    <t>Michael Crabtree</t>
+  </si>
+  <si>
+    <t>Tom Crabtree</t>
+  </si>
+  <si>
+    <t>River Cracraft</t>
+  </si>
+  <si>
+    <t>Dameyune Craig</t>
+  </si>
+  <si>
+    <t>Casey Cramer</t>
+  </si>
+  <si>
+    <t>Su'a Cravens</t>
+  </si>
+  <si>
+    <t>Keyuo Craver</t>
+  </si>
+  <si>
+    <t>Casey Crawford</t>
+  </si>
+  <si>
+    <t>Jack Crawford</t>
+  </si>
+  <si>
+    <t>James Crawford</t>
+  </si>
+  <si>
+    <t>Richard Crawford</t>
+  </si>
+  <si>
+    <t>Tyrone Crawford</t>
+  </si>
+  <si>
+    <t>Xavier Crawford</t>
+  </si>
+  <si>
+    <t>Ken Crawley</t>
+  </si>
+  <si>
+    <t>Patrick Crayton</t>
+  </si>
+  <si>
+    <t>Gabe Crecion</t>
+  </si>
+  <si>
+    <t>Josh Cribbs</t>
+  </si>
+  <si>
+    <t>Scott Crichton</t>
+  </si>
+  <si>
+    <t>Jared Crick</t>
+  </si>
+  <si>
+    <t>Juron Criner</t>
+  </si>
+  <si>
+    <t>Shadwick Criss</t>
+  </si>
+  <si>
+    <t>Chris Crocker</t>
+  </si>
+  <si>
+    <t>John Crockett</t>
+  </si>
+  <si>
+    <t>Antonio Cromartie</t>
+  </si>
+  <si>
+    <t>Marcus Cromartie</t>
+  </si>
+  <si>
+    <t>Da'Mon Cromartie-Smith</t>
+  </si>
+  <si>
+    <t>Jason Croom</t>
+  </si>
+  <si>
+    <t>Larry Croom</t>
+  </si>
+  <si>
+    <t>Mason Crosby</t>
+  </si>
+  <si>
+    <t>Maxx Crosby</t>
+  </si>
+  <si>
+    <t>Phillip Crosby</t>
+  </si>
+  <si>
+    <t>Tyrell Crosby</t>
+  </si>
+  <si>
+    <t>Alan Cross</t>
+  </si>
+  <si>
+    <t>Keion Crossen</t>
+  </si>
+  <si>
+    <t>Cole Croston</t>
+  </si>
+  <si>
+    <t>Channing Crowder</t>
+  </si>
+  <si>
+    <t>Jamison Crowder</t>
+  </si>
+  <si>
+    <t>Tim Crowder</t>
+  </si>
+  <si>
+    <t>Angelo Crowell</t>
+  </si>
+  <si>
+    <t>Isaiah Crowell</t>
+  </si>
+  <si>
+    <t>Brodie Croyle</t>
+  </si>
+  <si>
+    <t>Dane Cruikshank</t>
+  </si>
+  <si>
+    <t>Andrew Crummey</t>
+  </si>
+  <si>
+    <t>Alge Crumpler</t>
+  </si>
+  <si>
+    <t>Darrel Crutchfield</t>
+  </si>
+  <si>
+    <t>Ronnie Cruz</t>
+  </si>
+  <si>
+    <t>Victor Cruz</t>
+  </si>
+  <si>
+    <t>Jermelle Cudjo</t>
+  </si>
+  <si>
+    <t>Yannick Cudjoe-Virgil</t>
+  </si>
+  <si>
+    <t>Quinton Culberson</t>
+  </si>
+  <si>
+    <t>Sean Culkin</t>
+  </si>
+  <si>
+    <t>Chris Culliver</t>
+  </si>
+  <si>
+    <t>Tyrone Culver</t>
+  </si>
+  <si>
+    <t>Jeff Cumberland</t>
+  </si>
+  <si>
+    <t>Kenwin Cummings</t>
+  </si>
+  <si>
+    <t>Billy Cundiff</t>
+  </si>
+  <si>
+    <t>B.J. Cunningham</t>
+  </si>
+  <si>
+    <t>Benny Cunningham</t>
+  </si>
+  <si>
+    <t>Jermaine Cunningham</t>
+  </si>
+  <si>
+    <t>Jerome Cunningham</t>
+  </si>
+  <si>
+    <t>Justice Cunningham</t>
+  </si>
+  <si>
+    <t>Korey Cunningham</t>
+  </si>
+  <si>
+    <t>Dan Curley</t>
+  </si>
+  <si>
+    <t>Rennie Curran</t>
+  </si>
+  <si>
+    <t>Airese Currie</t>
+  </si>
+  <si>
+    <t>Justin Currie</t>
+  </si>
+  <si>
+    <t>Aaron Curry</t>
+  </si>
+  <si>
+    <t>Clarence Curry</t>
+  </si>
+  <si>
+    <t>DeMarcus Curry</t>
+  </si>
+  <si>
+    <t>Dominique Curry</t>
+  </si>
+  <si>
+    <t>Donte Curry</t>
+  </si>
+  <si>
+    <t>Julius Curry</t>
+  </si>
+  <si>
+    <t>Markus Curry</t>
+  </si>
+  <si>
+    <t>Ronald Curry</t>
+  </si>
+  <si>
+    <t>Vinny Curry</t>
+  </si>
+  <si>
+    <t>Kevin Curtis</t>
+  </si>
+  <si>
+    <t>Tony Curtis</t>
+  </si>
+  <si>
+    <t>Brian Cushing</t>
+  </si>
+  <si>
+    <t>Jay Cutler</t>
+  </si>
+  <si>
+    <t>Jacob Cutrera</t>
+  </si>
+  <si>
+    <t>Austin Cutting</t>
+  </si>
+  <si>
+    <t>Johnathan Cyprien</t>
   </si>
 </sst>
 </file>
@@ -3693,10 +5277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B966F6-99ED-4357-B12D-1F6521F2DAF7}">
-  <dimension ref="A1:D1121"/>
+  <dimension ref="A1:D1655"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1079" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1087" sqref="A1087:B1121"/>
+    <sheetView tabSelected="1" topLeftCell="A1379" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1390" sqref="A1390:B1655"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12781,6 +14365,4302 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1122" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1123" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B1123">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1124" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B1124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1125" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B1125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1126" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B1126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1127" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1127">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1128" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B1128">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1129" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B1129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1130" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B1130">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1131" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B1131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1132" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B1132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1133" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B1133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1134" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B1134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1135" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B1135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1136" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B1136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1137" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B1137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1138" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B1138">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1139" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1139">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1140" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1141" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1142" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B1142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1143" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B1143">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1144" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B1144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1145" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B1145">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1146" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B1146">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1147" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B1147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1148" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B1148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1149" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B1149">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1150" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1151" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1152" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B1152">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1153" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B1153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1154" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B1154">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1155" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B1155">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1156" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B1156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1157" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B1157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1158" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B1158">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1159" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B1159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1160" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B1160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1161" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B1161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1162" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B1162">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1163" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B1163">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1164" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B1164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1165" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B1165">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1166" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B1166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1167" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B1167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1168" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B1168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1169" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B1169">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1170" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B1170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1171" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B1171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1172" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B1172">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1173" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B1173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1174" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B1174">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1175" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B1175">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1176" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B1176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1177" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B1177">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1178" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1179" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B1179">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1180" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B1180">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1181" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B1181">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1182" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B1182">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1183" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B1183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1184" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B1184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1185" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B1185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1186" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B1186">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1187" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B1187">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1188" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B1188">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1189" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B1189">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1190" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B1190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1191" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B1191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1192" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B1192">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1193" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B1193">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1194" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B1194">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1195" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B1195">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1196" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1197" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B1197">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1198" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B1198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1199" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B1199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1200" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B1200">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1201" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B1201">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1202" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B1202">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1203" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B1203">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1204" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B1204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1205" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B1205">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1206" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B1206">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1207" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B1207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1208" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1209" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B1209">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1210" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B1210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1211" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B1211">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1212" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B1212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1213" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B1213">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1214" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B1214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1215" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B1215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1216" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1216">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1217" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B1217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1218" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B1218">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1219" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B1219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1220" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B1220">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1221" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B1221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1222" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B1222">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1223" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B1223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1224" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B1224">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1225" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B1225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1226" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B1226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1227" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B1227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1228" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B1228">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1229" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1230" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B1230">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1231" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B1231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1232" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1233" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B1233">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1234" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B1234">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1235" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B1235">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1236" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B1236">
+        <v>0</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1237" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B1237">
+        <v>10</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1238" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B1238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1239" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B1239">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1240" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B1240">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1241" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B1241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1242" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B1242">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1243" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B1243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1244" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B1244">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1245" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B1245">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1246" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B1246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1247" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B1247">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1248" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B1248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1249" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B1249">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1250" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B1250">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1251" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B1251">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1252" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B1252">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1253" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1253">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1254" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B1254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1255" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B1255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1256" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B1256">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1257" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B1257">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1258" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1259" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1259">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1260" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B1260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1261" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B1261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1262" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B1262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1263" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B1263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1264" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B1264">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1265" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B1265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1266" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B1266">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1267" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B1267">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1268" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1268">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1269" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B1269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1270" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B1270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1271" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1271">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1272" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B1272">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1273" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B1273">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1274" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B1274">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1275" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B1275">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1276" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B1276">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1277" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B1277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1278" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B1278">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1279" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B1279">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1280" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B1280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1281" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B1281">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1282" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B1282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1283" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B1283">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1284" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B1284">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1285" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1286" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B1286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1287" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B1287">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1288" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B1288">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1289" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B1289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1290" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B1290">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1291" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B1291">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1292" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B1292">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1293" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B1293">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1294" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1294">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1295" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1295">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1296" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1296">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1297" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B1297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1298" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1299" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1299">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1300" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1301" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B1301">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1302" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1303" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B1303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1304" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B1304">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1305" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B1305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1306" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B1306">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1307" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B1307">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1308" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B1308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1309" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B1309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1310" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B1310">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1311" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B1311">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1312" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1312">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1313" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B1313">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1314" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B1314">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1315" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B1315">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1316" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1317" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1317">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1318" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1319" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B1319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1320" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B1320">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1321" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B1321">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1322" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B1322">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1323" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B1323">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1324" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B1324">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1325" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B1325">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1326" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B1326">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1327" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1328" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B1328">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1329" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B1329">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1330" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B1330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1331" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1331">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1332" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B1332">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1333" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B1333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1334" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B1334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1335" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1335">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1336" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1336">
+        <v>0</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1337" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1337">
+        <v>0</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1338" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B1338">
+        <v>0</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1339" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B1339">
+        <v>46</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1340" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1340">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1341" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B1341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1342" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B1342">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1343" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B1343">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1344" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B1344">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1345" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B1345">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1346" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B1346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1347" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B1347">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1348" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B1348">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1349" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B1349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1350" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B1350">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1351" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B1351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1352" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B1352">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1353" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B1353">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1354" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B1354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1355" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B1355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1356" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B1356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1357" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B1357">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1358" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B1358">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1359" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B1359">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1360" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B1360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1361" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B1361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1362" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B1362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1363" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B1363">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1364" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B1364">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1365" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B1365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1366" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B1366">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1367" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B1367">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1368" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B1368">
+        <v>44</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1369" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B1369">
+        <v>20</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1370" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B1370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1371" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B1371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1372" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B1372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1373" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B1373">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1374" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B1374">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1375" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B1375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1376" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1376">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1377" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1377">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1378" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B1378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1379" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B1379">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1380" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B1380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1381" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B1381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1382" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B1382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1383" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B1383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1384" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B1384">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1385" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B1385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1386" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B1386">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1387" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B1387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1388" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B1388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1389" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B1389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1390" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1390">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1391" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B1391">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1392" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B1392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1393" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B1393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1394" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B1394">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1395" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B1395">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1396" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1396">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1397" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B1397">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1398" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B1398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1399" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B1399">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1400" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B1400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1401" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B1401">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1402" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B1402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1403" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B1403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1404" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B1404">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1405" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B1405">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1406" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B1406">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1407" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B1407">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1408" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B1408">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1409" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B1409">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1410" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B1410">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1411" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B1411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1412" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B1412">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1413" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B1413">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1414" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B1414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1415" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B1415">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1416" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B1416">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1417" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B1417">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1418" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B1418">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1419" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B1419">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1420" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B1420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1421" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B1421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1422" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B1422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1423" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B1423">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1424" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B1424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1425" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B1425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1426" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B1426">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1427" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B1427">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1428" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B1428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1429" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B1429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1430" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1431" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B1431">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1432" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B1432">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1433" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B1433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1434" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B1434">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1435" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B1435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1436" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B1436">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1437" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B1437">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1438" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B1438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1439" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B1439">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1440" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B1440">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1441" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B1441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1442" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B1442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1443" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1443">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1444" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1445" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1446" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B1446">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1447" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B1447">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1448" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B1448">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1449" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B1449">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1450" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B1450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1451" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B1451">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1452" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B1452">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1453" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B1453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1454" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B1454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1455" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B1455">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1456" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B1456">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1457" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B1457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1458" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B1458">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1459" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B1459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1460" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B1460">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1461" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B1461">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1462" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B1462">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1463" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B1463">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1464" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B1464">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1465" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B1465">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1466" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B1466">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1467" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B1467">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1468" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B1468">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1469" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B1469">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1470" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B1470">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1471" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B1471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1472" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B1472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1473" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B1473">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1474" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B1474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1475" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B1475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1476" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B1476">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1477" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B1477">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1478" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B1478">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1479" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B1479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1480" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B1480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1481" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B1481">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1482" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B1482">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1483" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B1483">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1484" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B1484">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1485" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B1485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1486" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B1486">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1487" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B1487">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1488" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B1488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1489" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B1489">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1490" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B1490">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1491" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B1491">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1492" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B1492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1493" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B1493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1494" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B1494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1495" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B1495">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1496" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B1496">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1497" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B1497">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1498" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B1498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1499" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B1499">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1500" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B1500">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1501" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B1501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1502" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B1502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1503" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B1503">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1504" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B1504">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1505" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B1505">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1506" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B1506">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1507" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B1507">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1508" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B1508">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1509" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B1509">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1510" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B1510">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1511" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1511">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1512" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B1512">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1513" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B1513">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1514" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B1514">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1515" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B1515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1516" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1516">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1517" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B1517">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1518" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B1518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1519" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B1519">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1520" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B1520">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1521" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B1521">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1522" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B1522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1523" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B1523">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1524" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B1524">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1525" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B1525">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1526" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B1526">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1527" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B1527">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1528" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B1528">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1529" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B1529">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1530" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B1530">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1531" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B1531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1532" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B1532">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1533" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B1533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1534" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B1534">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1535" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B1535">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1536" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B1536">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1537" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B1537">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1538" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B1538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1539" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B1539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1540" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B1540">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1541" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B1541">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1542" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B1542">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1543" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1543">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1544" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B1544">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1545" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B1545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1546" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B1546">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1547" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B1547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1548" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B1548">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1549" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B1549">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1550" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B1550">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1551" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B1551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1552" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B1552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1553" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B1553">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1554" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B1554">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1555" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B1555">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1556" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B1556">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1557" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B1557">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1558" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B1558">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1559" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B1559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1560" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B1560">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1561" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B1561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1562" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B1562">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1563" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B1563">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1564" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1564">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1565" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B1565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1566" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B1566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1567" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B1567">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1568" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B1568">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1569" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B1569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1570" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B1570">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1571" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B1571">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1572" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B1572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1573" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B1573">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1574" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B1574">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1575" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B1575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1576" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B1576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1577" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B1577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1578" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B1578">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1579" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B1579">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1580" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B1580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1581" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B1581">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1582" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1582">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1583" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B1583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1584" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B1584">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1585" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B1585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1586" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B1586">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1587" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B1587">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1588" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B1588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1589" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B1589">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1590" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B1590">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1591" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B1591">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1592" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B1592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1593" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B1593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1594" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B1594">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1595" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B1595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1596" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B1596">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1597" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B1597">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1598" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B1598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1599" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B1599">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1600" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B1600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1601" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B1601">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1602" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B1602">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1603" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B1603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1604" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B1604">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1605" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B1605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1606" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B1606">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1607" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B1607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1608" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B1608">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1609" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B1609">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1610" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B1610">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1611" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B1611">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1612" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B1612">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1613" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B1613">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1614" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B1614">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1615" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B1615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1616" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B1616">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1617" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B1617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1618" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B1618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1619" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B1619">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1620" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B1620">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1621" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B1621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1622" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B1622">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1623" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B1623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1624" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B1624">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1625" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B1625">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1626" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B1626">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1627" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B1627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1628" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B1628">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1629" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B1629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1630" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B1630">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1631" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B1631">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1632" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B1632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1633" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B1633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1634" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B1634">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1635" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B1635">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1636" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B1636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1637" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B1637">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1638" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B1638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1639" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B1639">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1640" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B1640">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1641" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B1641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1642" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B1642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1643" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B1643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1644" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B1644">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1645" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B1645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1646" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B1646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1647" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B1647">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1648" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B1648">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1649" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B1649">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1650" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B1650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1651" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B1651">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1652" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B1652">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1653" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B1653">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1654" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B1654">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1655" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B1655">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
